--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 06:40</t>
+          <t>MD410 Registrees as of 13/04/2021 10:43</t>
         </is>
       </c>
     </row>
@@ -1834,17 +1834,17 @@
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1859,24 +1859,24 @@
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1962,17 +1962,17 @@
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1994,17 +1994,17 @@
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -2014,29 +2014,29 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -2046,12 +2046,12 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
@@ -2090,17 +2090,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
@@ -2154,17 +2154,17 @@
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2174,39 +2174,39 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -2238,66 +2238,66 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2314,22 +2314,22 @@
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2339,24 +2339,24 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2378,17 +2378,17 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -2403,24 +2403,24 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2430,29 +2430,29 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2467,34 +2467,34 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
@@ -2506,22 +2506,22 @@
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2531,24 +2531,24 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2570,17 +2570,17 @@
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2634,17 +2634,17 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
@@ -2698,17 +2698,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2718,12 +2718,12 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
@@ -2762,22 +2762,22 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Huysamen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -2794,49 +2794,49 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Huysamen</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2858,22 +2858,22 @@
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2895,22 +2895,22 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
@@ -2922,17 +2922,17 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
@@ -2954,22 +2954,22 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -2986,17 +2986,17 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -3018,17 +3018,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -3050,27 +3050,27 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3114,17 +3114,17 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -3146,22 +3146,22 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3178,22 +3178,22 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3203,24 +3203,24 @@
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
@@ -3242,17 +3242,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
@@ -3274,17 +3274,17 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
@@ -3306,49 +3306,49 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3358,34 +3358,34 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -3395,24 +3395,24 @@
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3434,17 +3434,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3454,29 +3454,29 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
@@ -3498,49 +3498,49 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -3562,27 +3562,27 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
@@ -3594,17 +3594,17 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
@@ -3626,49 +3626,49 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3678,29 +3678,29 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3715,29 +3715,29 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -3747,29 +3747,29 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3786,17 +3786,17 @@
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3818,17 +3818,17 @@
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3843,34 +3843,34 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
@@ -3882,17 +3882,17 @@
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -3914,27 +3914,27 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3978,17 +3978,17 @@
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -4003,29 +4003,29 @@
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4035,24 +4035,24 @@
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -4067,24 +4067,24 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4106,17 +4106,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4138,17 +4138,17 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4163,24 +4163,24 @@
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4202,17 +4202,17 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4234,17 +4234,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
@@ -4266,17 +4266,17 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
@@ -4298,17 +4298,17 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4318,61 +4318,61 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4382,39 +4382,39 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
@@ -4426,22 +4426,22 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4451,24 +4451,24 @@
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -4478,34 +4478,34 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -4522,27 +4522,27 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -4554,17 +4554,17 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -4579,24 +4579,24 @@
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -4618,27 +4618,27 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr">
@@ -4650,17 +4650,17 @@
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -4682,17 +4682,17 @@
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -4707,24 +4707,24 @@
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -4746,17 +4746,17 @@
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -4771,24 +4771,24 @@
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -4803,24 +4803,24 @@
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4830,29 +4830,29 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4867,24 +4867,24 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4899,24 +4899,24 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4931,34 +4931,34 @@
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
@@ -4970,17 +4970,17 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4990,29 +4990,29 @@
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5034,49 +5034,49 @@
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5098,17 +5098,17 @@
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5118,29 +5118,29 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5150,29 +5150,29 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
@@ -5194,17 +5194,17 @@
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5226,22 +5226,22 @@
     <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
@@ -5258,17 +5258,17 @@
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5290,17 +5290,17 @@
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5315,34 +5315,34 @@
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5354,17 +5354,17 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5386,17 +5386,17 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5411,24 +5411,24 @@
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5443,24 +5443,24 @@
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5470,24 +5470,24 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
@@ -5514,17 +5514,17 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5534,29 +5534,29 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5571,19 +5571,19 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -5610,27 +5610,27 @@
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
@@ -5642,17 +5642,17 @@
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5662,29 +5662,29 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5706,49 +5706,49 @@
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -5763,24 +5763,24 @@
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -5827,24 +5827,24 @@
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5866,22 +5866,22 @@
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
@@ -5898,17 +5898,17 @@
     <row r="172" ht="25" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5923,24 +5923,24 @@
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="173" ht="25" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -5950,34 +5950,34 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="174" ht="25" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
@@ -5987,19 +5987,19 @@
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -6026,17 +6026,17 @@
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6051,24 +6051,24 @@
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6090,17 +6090,17 @@
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
@@ -6122,17 +6122,17 @@
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6147,24 +6147,24 @@
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -6179,29 +6179,29 @@
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
@@ -6218,17 +6218,17 @@
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6238,34 +6238,34 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
@@ -6275,24 +6275,24 @@
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F184" s="3" t="inlineStr">
@@ -6314,17 +6314,17 @@
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -6346,17 +6346,17 @@
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -6371,24 +6371,24 @@
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -6403,24 +6403,24 @@
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
@@ -6442,17 +6442,17 @@
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -6462,66 +6462,66 @@
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -6538,22 +6538,22 @@
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6570,59 +6570,59 @@
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
@@ -6634,54 +6634,54 @@
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6698,17 +6698,17 @@
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -6718,39 +6718,39 @@
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
@@ -6762,17 +6762,17 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -6794,17 +6794,17 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -6814,29 +6814,29 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -6858,22 +6858,22 @@
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -6883,24 +6883,24 @@
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -6910,34 +6910,34 @@
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
@@ -6954,22 +6954,22 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
@@ -6979,24 +6979,24 @@
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7018,22 +7018,22 @@
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
@@ -7043,24 +7043,24 @@
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -7070,29 +7070,29 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7102,29 +7102,29 @@
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -7134,29 +7134,29 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -7171,24 +7171,24 @@
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
@@ -7210,17 +7210,17 @@
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -7242,17 +7242,17 @@
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7262,29 +7262,29 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -7299,24 +7299,24 @@
       </c>
       <c r="F215" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="216" ht="25" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -7370,27 +7370,27 @@
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F218" s="3" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="219" ht="25" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -7422,29 +7422,29 @@
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="220" ht="25" customHeight="1">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
@@ -7466,46 +7466,142 @@
     <row r="221" ht="25" customHeight="1">
       <c r="A221" s="3" t="inlineStr">
         <is>
+          <t>van der Merwe</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>Ingrid</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>Letaba Tzaneen</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F221" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="25" customHeight="1">
+      <c r="A222" s="3" t="inlineStr">
+        <is>
+          <t>van der Westhuizen</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>Hennie</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
+        <is>
+          <t>Helderberg</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F222" s="3" t="inlineStr">
+        <is>
+          <t>410W</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="25" customHeight="1">
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D223" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E223" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F223" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="25" customHeight="1">
+      <c r="A224" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B221" s="3" t="inlineStr">
+      <c r="B224" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C221" s="3" t="inlineStr">
+      <c r="C224" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D221" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E221" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F221" s="3" t="inlineStr">
+      <c r="D224" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F224" s="3" t="inlineStr">
         <is>
           <t>410E</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 219</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>Number of voters: 108</t>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 222</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>Number of voters: 109</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7539,7 +7635,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 06:40</t>
+          <t>410E Registrees as of 13/04/2021 10:43</t>
         </is>
       </c>
     </row>
@@ -7978,17 +8074,17 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -8010,7 +8106,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -8037,7 +8133,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -8059,17 +8155,17 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -8086,17 +8182,17 @@
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -8118,7 +8214,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -8133,24 +8229,24 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -8160,7 +8256,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8172,7 +8268,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -8187,100 +8283,100 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>HERMANUS</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MBULELO</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>HERMANUS</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>MBULELO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -8290,29 +8386,29 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -8322,24 +8418,24 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -8349,24 +8445,24 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -8383,17 +8479,17 @@
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -8403,7 +8499,7 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8511,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -8437,17 +8533,17 @@
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -8469,7 +8565,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -8484,24 +8580,24 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -8511,24 +8607,24 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -8545,17 +8641,17 @@
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -8565,24 +8661,24 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -8592,24 +8688,24 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -8619,24 +8715,24 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -8646,56 +8742,56 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Niqula</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -8707,22 +8803,22 @@
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -8734,12 +8830,12 @@
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Labuschagne</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Niqula</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -8749,7 +8845,7 @@
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -8761,12 +8857,12 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -8776,7 +8872,7 @@
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -8788,17 +8884,17 @@
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Labuschagne</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -8808,29 +8904,29 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -8842,17 +8938,17 @@
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -8869,17 +8965,17 @@
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -8889,24 +8985,24 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -8923,17 +9019,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Masson</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -8943,24 +9039,24 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -8977,17 +9073,17 @@
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>McKerrow</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Alec</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -9004,17 +9100,17 @@
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>Masson</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -9031,17 +9127,17 @@
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Meltzer</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -9058,17 +9154,17 @@
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>McKerrow</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Alec</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -9078,24 +9174,24 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -9105,24 +9201,24 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meltzer</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -9132,24 +9228,24 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -9166,17 +9262,17 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -9186,24 +9282,24 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -9213,24 +9309,24 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -9247,17 +9343,17 @@
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -9267,24 +9363,24 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Theo</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -9301,17 +9397,17 @@
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -9328,17 +9424,17 @@
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -9355,17 +9451,17 @@
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>Theo</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -9382,17 +9478,17 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -9409,17 +9505,17 @@
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -9436,17 +9532,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -9456,24 +9552,24 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -9483,24 +9579,24 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -9517,17 +9613,17 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -9537,24 +9633,24 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -9564,24 +9660,24 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -9591,24 +9687,24 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -9625,17 +9721,17 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -9645,24 +9741,24 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -9672,24 +9768,24 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -9706,17 +9802,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Brett Jason</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -9733,17 +9829,17 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -9753,24 +9849,24 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -9780,24 +9876,24 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Brett Jason</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -9814,12 +9910,12 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -9841,12 +9937,12 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Townsend</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -9868,17 +9964,17 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -9895,17 +9991,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -9915,24 +10011,24 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -9949,22 +10045,22 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -9976,22 +10072,22 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
@@ -10003,22 +10099,22 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -10030,17 +10126,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -10050,29 +10146,29 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -10084,71 +10180,71 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -10158,24 +10254,24 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -10192,22 +10288,22 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -10219,17 +10315,17 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -10239,24 +10335,24 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -10273,22 +10369,22 @@
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -10300,17 +10396,17 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -10320,24 +10416,24 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -10347,24 +10443,24 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -10374,24 +10470,24 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -10401,24 +10497,24 @@
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -10435,17 +10531,17 @@
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10455,24 +10551,24 @@
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10482,7 +10578,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10494,12 +10590,12 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -10516,44 +10612,44 @@
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -10563,48 +10659,129 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
+          <t>van Wyk</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>Patricia</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Pretoria Jakaranda</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="25" customHeight="1">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>van der Merwe</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>Ingrid</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Letaba Tzaneen</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="25" customHeight="1">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="25" customHeight="1">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="B117" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C114" s="3" t="inlineStr">
+      <c r="C117" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D114" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 112</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>Number of voters: 59</t>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 115</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Number of voters: 60</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10815,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 06:40</t>
+          <t>410W Registrees as of 13/04/2021 10:43</t>
         </is>
       </c>
     </row>
@@ -14652,7 +14829,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 06:40</t>
+          <t>410E Voting details as of 13/04/2021 10:43</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14852,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
@@ -14958,7 +15135,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Number of voters: 60</t>
+          <t>Number of voters: 61</t>
         </is>
       </c>
     </row>
@@ -14989,7 +15166,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 06:40</t>
+          <t>410W Voting details as of 13/04/2021 10:43</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 10:43</t>
+          <t>MD410 Registrees as of 13/04/2021 12:59</t>
         </is>
       </c>
     </row>
@@ -746,17 +746,17 @@
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Beukes-Williams</t>
+          <t>Benade</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cathleen</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Rehoboth</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -778,49 +778,49 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Blakeman</t>
+          <t>Beukes-Williams</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Belinda</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Botha</t>
+          <t>Blakeman</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Lyn(ette)</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -842,17 +842,17 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Brooker</t>
+          <t>Botha</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Byron</t>
+          <t>Lyn(ette)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -874,22 +874,22 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Cadman</t>
+          <t>Brooker</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Byron</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -899,29 +899,29 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Calomiris</t>
+          <t>Cadman</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -938,27 +938,27 @@
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Cannone</t>
+          <t>Calomiris</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Linda Ann</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -970,27 +970,27 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Carstens</t>
+          <t>Cannone</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Petrus</t>
+          <t>Linda Ann</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1002,27 +1002,27 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Castle</t>
+          <t>Carstens</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Lizelle</t>
+          <t>Petrus</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1034,22 +1034,22 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Castle</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lizelle</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1066,17 +1066,17 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Chazen</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Lionel</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Chetty</t>
+          <t>Chazen</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Lionel</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>East Coast</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1130,22 +1130,22 @@
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Chinyai</t>
+          <t>Chetty</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Tanyaradzwa</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1155,34 +1155,34 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Cloete</t>
+          <t>Chinyai</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Delaney Yeltsin</t>
+          <t>Tanyaradzwa</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -1194,49 +1194,49 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Coppen</t>
+          <t>Cloete</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Delaney Yeltsin</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Cornelius</t>
+          <t>Coppen</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Esme</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1251,34 +1251,34 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Cottle</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Esme</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
@@ -1290,22 +1290,22 @@
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>DE VILLIERS</t>
+          <t>Cottle</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1322,27 +1322,27 @@
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>DE VILLIERS</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Norma</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1386,22 +1386,22 @@
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>De Wet</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Norma</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1411,24 +1411,24 @@
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Diener</t>
+          <t>De Wet</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Benita</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1438,29 +1438,29 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Dodd</t>
+          <t>Diener</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Freda</t>
+          <t>Benita</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -1482,17 +1482,17 @@
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>Dodd</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Peggy</t>
+          <t>Freda</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1502,12 +1502,12 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1546,17 +1546,17 @@
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Glynn</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Glynn</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1610,17 +1610,17 @@
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -1674,17 +1674,17 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1699,24 +1699,24 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1731,24 +1731,24 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -1802,17 +1802,17 @@
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Fouché</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Jéan</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1834,17 +1834,17 @@
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Fouché</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Jéan</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1859,24 +1859,24 @@
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1891,24 +1891,24 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1994,17 +1994,17 @@
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -2026,17 +2026,17 @@
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -2046,29 +2046,29 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -2186,17 +2186,17 @@
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -2206,39 +2206,39 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -2250,17 +2250,17 @@
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -2270,66 +2270,66 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2346,22 +2346,22 @@
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2371,24 +2371,24 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -2410,17 +2410,17 @@
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2435,24 +2435,24 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2462,29 +2462,29 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2499,34 +2499,34 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
@@ -2538,22 +2538,22 @@
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2563,24 +2563,24 @@
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2602,17 +2602,17 @@
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2666,17 +2666,17 @@
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -2730,17 +2730,17 @@
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -2794,22 +2794,22 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Huysamen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
@@ -2826,49 +2826,49 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Huysamen</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -2890,22 +2890,22 @@
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2927,22 +2927,22 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
@@ -2954,17 +2954,17 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -2986,22 +2986,22 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -3018,17 +3018,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -3050,17 +3050,17 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
@@ -3082,27 +3082,27 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3114,17 +3114,17 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -3146,17 +3146,17 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -3178,22 +3178,22 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3210,22 +3210,22 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3235,24 +3235,24 @@
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3274,17 +3274,17 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -3338,17 +3338,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
@@ -3370,22 +3370,22 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -3395,34 +3395,34 @@
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
@@ -3434,17 +3434,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3454,29 +3454,29 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3486,29 +3486,29 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
@@ -3562,22 +3562,22 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -3587,29 +3587,29 @@
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -3619,24 +3619,24 @@
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -3646,29 +3646,29 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3710,34 +3710,34 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -3747,29 +3747,29 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3779,24 +3779,24 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3811,24 +3811,24 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3843,29 +3843,29 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3882,22 +3882,22 @@
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3966,29 +3966,29 @@
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -3998,39 +3998,39 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
@@ -4042,22 +4042,22 @@
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
@@ -4067,19 +4067,19 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
@@ -4106,17 +4106,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -4138,17 +4138,17 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4163,24 +4163,24 @@
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4190,29 +4190,29 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
@@ -4234,17 +4234,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
@@ -4298,17 +4298,17 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
@@ -4330,17 +4330,17 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
@@ -4394,17 +4394,17 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4414,39 +4414,39 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4458,27 +4458,27 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -4490,27 +4490,27 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -4522,22 +4522,22 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -4586,17 +4586,17 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -4611,71 +4611,71 @@
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -4714,17 +4714,17 @@
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -4739,24 +4739,24 @@
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -4771,24 +4771,24 @@
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -4803,24 +4803,24 @@
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4842,17 +4842,17 @@
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4874,17 +4874,17 @@
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4899,24 +4899,24 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
@@ -4970,17 +4970,17 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
@@ -5034,22 +5034,22 @@
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5059,29 +5059,29 @@
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -5123,24 +5123,24 @@
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
@@ -5162,17 +5162,17 @@
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5182,29 +5182,29 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
@@ -5226,17 +5226,17 @@
     <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -5258,17 +5258,17 @@
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -5290,17 +5290,17 @@
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5322,27 +5322,27 @@
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5354,27 +5354,27 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
@@ -5386,17 +5386,17 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5411,24 +5411,24 @@
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5443,24 +5443,24 @@
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -5514,17 +5514,17 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
@@ -5578,17 +5578,17 @@
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -5603,24 +5603,24 @@
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -5642,17 +5642,17 @@
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -5706,12 +5706,12 @@
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
@@ -5738,22 +5738,22 @@
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5775,12 @@
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5790,29 +5790,29 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="169" ht="25" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5930,17 +5930,17 @@
     <row r="173" ht="25" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
@@ -5962,27 +5962,27 @@
     <row r="174" ht="25" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
@@ -5994,22 +5994,22 @@
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
@@ -6019,24 +6019,24 @@
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6058,17 +6058,17 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -6122,17 +6122,17 @@
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6147,24 +6147,24 @@
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr">
@@ -6250,17 +6250,17 @@
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -6275,39 +6275,39 @@
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6319,17 +6319,17 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
@@ -6339,56 +6339,56 @@
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -6410,59 +6410,59 @@
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
@@ -6474,17 +6474,17 @@
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -6506,22 +6506,22 @@
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -6538,54 +6538,54 @@
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
@@ -6602,96 +6602,96 @@
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6703,22 +6703,22 @@
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
@@ -6730,27 +6730,27 @@
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
@@ -6762,22 +6762,22 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
@@ -6794,17 +6794,17 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -6819,24 +6819,24 @@
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -6846,29 +6846,29 @@
       </c>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
@@ -6890,17 +6890,17 @@
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -6954,54 +6954,54 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -7018,59 +7018,59 @@
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -7082,17 +7082,17 @@
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F209" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
@@ -7151,12 +7151,12 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -7178,17 +7178,17 @@
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
@@ -7242,17 +7242,17 @@
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -7338,17 +7338,17 @@
     <row r="217" ht="25" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="F217" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7375,12 +7375,12 @@
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -7407,12 +7407,12 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7466,27 +7466,27 @@
     <row r="221" ht="25" customHeight="1">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
@@ -7498,22 +7498,22 @@
     <row r="222" ht="25" customHeight="1">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
@@ -7523,24 +7523,24 @@
       </c>
       <c r="F222" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="223" ht="25" customHeight="1">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7555,51 +7555,83 @@
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="224" ht="25" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D224" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F224" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" ht="25" customHeight="1">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B224" s="3" t="inlineStr">
+      <c r="B225" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C224" s="3" t="inlineStr">
+      <c r="C225" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D224" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E224" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F224" s="3" t="inlineStr">
+      <c r="D225" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F225" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 222</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7635,7 +7667,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 10:43</t>
+          <t>410E Registrees as of 13/04/2021 12:59</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10815,7 +10847,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 10:43</t>
+          <t>410W Registrees as of 13/04/2021 12:59</t>
         </is>
       </c>
     </row>
@@ -11092,17 +11124,17 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Beukes-Williams</t>
+          <t>Benade</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cathleen</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Rehoboth</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -11112,29 +11144,29 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Buhrmann</t>
+          <t>Beukes-Williams</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Nelle</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -11146,22 +11178,22 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Cadman</t>
+          <t>Buhrmann</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Nelle</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -11173,22 +11205,22 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Calomiris</t>
+          <t>Cadman</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -11200,103 +11232,103 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Cannone</t>
+          <t>Calomiris</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Linda Ann</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Carstens</t>
+          <t>Cannone</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Petrus</t>
+          <t>Linda Ann</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Castle</t>
+          <t>Carstens</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Lizelle</t>
+          <t>Petrus</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Castle</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lizelle</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -11308,22 +11340,22 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Chinyai</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Tanyaradzwa</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -11335,103 +11367,103 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Cloete</t>
+          <t>Chinyai</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Delaney Yeltsin</t>
+          <t>Tanyaradzwa</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Cornelius</t>
+          <t>Cloete</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Esme</t>
+          <t>Delaney Yeltsin</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Cottle</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Esme</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>DE VILLIERS</t>
+          <t>Cottle</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -11443,27 +11475,27 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>DE VILLIERS</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11507,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Norma</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -11485,7 +11517,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -11497,76 +11529,76 @@
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Diener</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Benita</t>
+          <t>Norma</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Dunn</t>
+          <t>Diener</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Hanè</t>
+          <t>Benita</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Hanè</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -11583,12 +11615,12 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -11598,88 +11630,88 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Etridge</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Etridge</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Fahrbach</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11723,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Beate</t>
+          <t>Roger</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -11713,22 +11745,22 @@
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Fahrbach</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Beate</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -11745,7 +11777,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -11760,24 +11792,24 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -11787,19 +11819,19 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -11814,7 +11846,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11858,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Pat</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -11848,17 +11880,17 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Pat</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -11868,24 +11900,24 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -11895,83 +11927,83 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Grobler</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Matty</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Henties Bay</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Groenewoud</t>
+          <t>Grobler</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Christiana</t>
+          <t>Matty</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Henties Bay</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -11983,49 +12015,49 @@
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Groenewoud</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>Christiana</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -12037,22 +12069,22 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -12064,17 +12096,17 @@
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -12084,51 +12116,51 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Hess</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Dorothy</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -12145,22 +12177,22 @@
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Hoffmann</t>
+          <t>Hess</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Ellen G W</t>
+          <t>Dorothy</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -12172,17 +12204,17 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hoffmann</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Ellen G W</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -12192,7 +12224,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12204,7 +12236,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -12219,34 +12251,34 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12258,39 +12290,39 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -12300,29 +12332,29 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -12334,17 +12366,17 @@
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -12361,17 +12393,17 @@
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -12381,56 +12413,56 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Kemp</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -12442,44 +12474,44 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Kemp</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -12496,22 +12528,22 @@
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -12523,17 +12555,17 @@
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Koenze</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Alton</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -12543,24 +12575,24 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koenze</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Alton</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -12570,51 +12602,51 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -12631,17 +12663,17 @@
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -12663,7 +12695,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -12678,29 +12710,29 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Langmaak</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Elke</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -12717,7 +12749,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>Elke</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -12739,22 +12771,22 @@
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langmaak</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
@@ -12766,17 +12798,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -12786,24 +12818,24 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -12813,24 +12845,24 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -12852,7 +12884,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -12874,17 +12906,17 @@
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -12901,49 +12933,49 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -12955,17 +12987,17 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Elisa</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -12975,24 +13007,24 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Elisa</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -13009,71 +13041,71 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Mosesd</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -13083,29 +13115,29 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Mosesd</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -13117,22 +13149,22 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Mutschler</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Grootfontein</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -13144,17 +13176,17 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Mutschler</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Grootfontein</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -13171,7 +13203,7 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -13181,7 +13213,7 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -13203,12 +13235,12 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -13225,17 +13257,17 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -13252,17 +13284,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Nortjie</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -13272,24 +13304,24 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Ocker</t>
+          <t>Nortjie</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -13311,7 +13343,7 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -13333,17 +13365,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Ocker</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Debra</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -13353,29 +13385,29 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Ormandy</t>
+          <t>Olivier</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Isabella Stratton</t>
+          <t>Debra</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -13387,22 +13419,22 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Ormandy</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Isabella Stratton</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -13414,17 +13446,17 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -13441,44 +13473,44 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Poyowe</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Yvonne  Maureen</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Poyowe</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Yvonne  Maureen</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -13495,22 +13527,22 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -13522,17 +13554,17 @@
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -13542,24 +13574,24 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -13569,24 +13601,24 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -13596,24 +13628,24 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -13630,71 +13662,71 @@
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -13711,17 +13743,17 @@
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -13743,7 +13775,7 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -13765,12 +13797,12 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -13785,24 +13817,24 @@
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -13819,17 +13851,17 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -13851,7 +13883,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -13873,17 +13905,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -13900,17 +13932,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -13920,7 +13952,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13932,12 +13964,12 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -13947,7 +13979,7 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13991,7 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -13981,17 +14013,17 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -14001,56 +14033,56 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
@@ -14062,17 +14094,17 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -14089,17 +14121,17 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -14109,24 +14141,24 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -14143,44 +14175,44 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -14197,22 +14229,22 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
@@ -14224,22 +14256,22 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -14251,22 +14283,22 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Vorster</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -14278,22 +14310,22 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Vorster</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -14310,71 +14342,71 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -14386,22 +14418,22 @@
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Woodman</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Joan</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
@@ -14413,44 +14445,44 @@
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Woodman</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Joan</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -14460,7 +14492,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14472,17 +14504,17 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Gerry</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
@@ -14494,44 +14526,44 @@
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Gerry</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -14553,7 +14585,7 @@
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -14575,22 +14607,22 @@
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr">
@@ -14602,44 +14634,44 @@
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -14649,7 +14681,7 @@
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14693,7 @@
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -14676,24 +14708,24 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -14703,7 +14735,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14715,7 +14747,7 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -14730,7 +14762,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14774,7 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -14764,39 +14796,66 @@
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
+          <t>van Wulven</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>Deon</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Tygerberg Hills</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="25" customHeight="1">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
           <t>van der Westhuizen</t>
         </is>
       </c>
-      <c r="B148" s="3" t="inlineStr">
+      <c r="B149" s="3" t="inlineStr">
         <is>
           <t>Hennie</t>
         </is>
       </c>
-      <c r="C148" s="3" t="inlineStr">
+      <c r="C149" s="3" t="inlineStr">
         <is>
           <t>Helderberg</t>
         </is>
       </c>
-      <c r="D148" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E148" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 146</t>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 147</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 67</t>
         </is>
@@ -14829,7 +14888,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 10:43</t>
+          <t>410E Voting details as of 13/04/2021 12:59</t>
         </is>
       </c>
     </row>
@@ -15166,7 +15225,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 10:43</t>
+          <t>410W Voting details as of 13/04/2021 12:59</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 12:59</t>
+          <t>MD410 Registrees as of 13/04/2021 14:32</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1679,12 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -1706,17 +1706,17 @@
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1731,24 +1731,24 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1763,24 +1763,24 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -1834,17 +1834,17 @@
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Fouché</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Jéan</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1866,17 +1866,17 @@
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Fouché</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Jéan</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1891,24 +1891,24 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1923,24 +1923,24 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2026,17 +2026,17 @@
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -2058,17 +2058,17 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2078,29 +2078,29 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2110,12 +2110,12 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
@@ -2154,17 +2154,17 @@
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -2238,39 +2238,39 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
@@ -2282,17 +2282,17 @@
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -2302,66 +2302,66 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2378,22 +2378,22 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2403,24 +2403,24 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2442,17 +2442,17 @@
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2467,24 +2467,24 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2494,29 +2494,29 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2531,34 +2531,34 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
@@ -2570,22 +2570,22 @@
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2595,24 +2595,24 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2634,17 +2634,17 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -2698,17 +2698,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
@@ -2762,17 +2762,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -2782,12 +2782,12 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -2826,22 +2826,22 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Huysamen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -2858,49 +2858,49 @@
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Huysamen</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -2922,22 +2922,22 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2959,22 +2959,22 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -2986,17 +2986,17 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
@@ -3018,22 +3018,22 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
@@ -3050,17 +3050,17 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3114,27 +3114,27 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -3146,17 +3146,17 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -3178,17 +3178,17 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -3210,22 +3210,22 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3242,22 +3242,22 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -3267,24 +3267,24 @@
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3306,17 +3306,17 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -3370,17 +3370,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
@@ -3402,22 +3402,22 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
@@ -3427,34 +3427,34 @@
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
@@ -3466,17 +3466,17 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3486,29 +3486,29 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3518,29 +3518,29 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
@@ -3594,22 +3594,22 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -3619,29 +3619,29 @@
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -3651,24 +3651,24 @@
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3678,29 +3678,29 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3715,24 +3715,24 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -3742,34 +3742,34 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3779,29 +3779,29 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -3811,24 +3811,24 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3843,24 +3843,24 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -3875,29 +3875,29 @@
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3914,22 +3914,22 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -3978,17 +3978,17 @@
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -3998,29 +3998,29 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -4030,39 +4030,39 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
@@ -4074,22 +4074,22 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4099,19 +4099,19 @@
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -4138,17 +4138,17 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
@@ -4170,17 +4170,17 @@
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4195,24 +4195,24 @@
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4222,29 +4222,29 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
@@ -4266,17 +4266,17 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
@@ -4330,17 +4330,17 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
@@ -4362,17 +4362,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
@@ -4426,17 +4426,17 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4446,39 +4446,39 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -4490,27 +4490,27 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -4522,27 +4522,27 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -4554,22 +4554,22 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -4618,17 +4618,17 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -4643,71 +4643,71 @@
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4719,12 +4719,12 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -4746,17 +4746,17 @@
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -4771,24 +4771,24 @@
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -4803,24 +4803,24 @@
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4835,24 +4835,24 @@
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4874,17 +4874,17 @@
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4906,17 +4906,17 @@
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4931,24 +4931,24 @@
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
@@ -4975,12 +4975,12 @@
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr">
@@ -5002,17 +5002,17 @@
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="F144" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
@@ -5066,22 +5066,22 @@
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
@@ -5091,29 +5091,29 @@
       </c>
       <c r="F146" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -5155,24 +5155,24 @@
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
@@ -5194,17 +5194,17 @@
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5214,29 +5214,29 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -5258,17 +5258,17 @@
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -5290,17 +5290,17 @@
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
@@ -5322,17 +5322,17 @@
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5354,27 +5354,27 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
@@ -5386,27 +5386,27 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5443,24 +5443,24 @@
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5475,24 +5475,24 @@
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -5546,17 +5546,17 @@
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
@@ -5610,17 +5610,17 @@
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -5635,24 +5635,24 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5674,17 +5674,17 @@
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -5738,12 +5738,12 @@
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr">
@@ -5770,22 +5770,22 @@
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5807,12 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -5822,29 +5822,29 @@
       </c>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5903,12 +5903,12 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -5962,17 +5962,17 @@
     <row r="174" ht="25" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
@@ -5994,27 +5994,27 @@
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
@@ -6026,22 +6026,22 @@
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
@@ -6058,22 +6058,22 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E177" s="3" t="inlineStr">
@@ -6083,19 +6083,19 @@
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -6122,17 +6122,17 @@
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6154,17 +6154,17 @@
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -6179,24 +6179,24 @@
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -6218,17 +6218,17 @@
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6238,12 +6238,12 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -6282,17 +6282,17 @@
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -6302,39 +6302,39 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F185" s="3" t="inlineStr">
@@ -6346,17 +6346,17 @@
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
@@ -6378,17 +6378,17 @@
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
@@ -6410,81 +6410,81 @@
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -6499,34 +6499,34 @@
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
@@ -6538,22 +6538,22 @@
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6570,17 +6570,17 @@
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -6590,29 +6590,29 @@
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -6622,29 +6622,29 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -6654,29 +6654,29 @@
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -6698,17 +6698,17 @@
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -6730,17 +6730,17 @@
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -6755,24 +6755,24 @@
       </c>
       <c r="F198" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -6794,17 +6794,17 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
@@ -6826,22 +6826,22 @@
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6851,24 +6851,24 @@
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
@@ -6890,17 +6890,17 @@
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -6915,24 +6915,24 @@
       </c>
       <c r="F203" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -6954,17 +6954,17 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
@@ -6986,49 +6986,49 @@
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -7038,29 +7038,29 @@
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -7070,29 +7070,29 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7107,56 +7107,56 @@
       </c>
       <c r="F209" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -7166,12 +7166,12 @@
       </c>
       <c r="E211" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
@@ -7210,17 +7210,17 @@
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -7235,24 +7235,24 @@
       </c>
       <c r="F213" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7262,29 +7262,29 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -7306,17 +7306,17 @@
     <row r="216" ht="25" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E217" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F217" s="3" t="inlineStr">
@@ -7370,17 +7370,17 @@
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -7395,24 +7395,24 @@
       </c>
       <c r="F218" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="219" ht="25" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7439,12 +7439,12 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -7498,27 +7498,27 @@
     <row r="222" ht="25" customHeight="1">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F222" s="3" t="inlineStr">
@@ -7530,17 +7530,17 @@
     <row r="223" ht="25" customHeight="1">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7550,34 +7550,34 @@
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="224" ht="25" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E224" s="3" t="inlineStr">
@@ -7594,44 +7594,108 @@
     <row r="225" ht="25" customHeight="1">
       <c r="A225" s="3" t="inlineStr">
         <is>
+          <t>van der Westhuizen</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>Hennie</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>Helderberg</t>
+        </is>
+      </c>
+      <c r="D225" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F225" s="3" t="inlineStr">
+        <is>
+          <t>410W</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="25" customHeight="1">
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F226" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="25" customHeight="1">
+      <c r="A227" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B225" s="3" t="inlineStr">
+      <c r="B227" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C225" s="3" t="inlineStr">
+      <c r="C227" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D225" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E225" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F225" s="3" t="inlineStr">
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F227" s="3" t="inlineStr">
         <is>
           <t>410E</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 223</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 225</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7649,7 +7713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,7 +7731,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 12:59</t>
+          <t>410E Registrees as of 13/04/2021 14:32</t>
         </is>
       </c>
     </row>
@@ -8079,44 +8143,44 @@
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -8133,17 +8197,17 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -8165,7 +8229,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -8192,7 +8256,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -8214,17 +8278,17 @@
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -8241,17 +8305,17 @@
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -8273,7 +8337,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -8288,24 +8352,24 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -8315,7 +8379,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8327,7 +8391,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -8342,100 +8406,100 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>HERMANUS</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MBULELO</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>HERMANUS</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>MBULELO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -8445,29 +8509,29 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -8477,24 +8541,24 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -8504,24 +8568,24 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -8538,17 +8602,17 @@
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -8558,7 +8622,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8570,7 +8634,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -8592,17 +8656,17 @@
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -8624,7 +8688,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -8639,24 +8703,24 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -8666,24 +8730,24 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -8700,17 +8764,17 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -8720,24 +8784,24 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -8754,17 +8818,17 @@
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -8774,7 +8838,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8786,7 +8850,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -8808,17 +8872,17 @@
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -8828,29 +8892,29 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -8867,7 +8931,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Niqula</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -8889,22 +8953,22 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Niqula</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -8916,17 +8980,17 @@
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Labuschagne</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -8943,22 +9007,22 @@
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Labuschagne</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -8970,39 +9034,39 @@
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -9017,24 +9081,24 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -9051,17 +9115,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -9071,24 +9135,24 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -9105,12 +9169,12 @@
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -9125,24 +9189,24 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Masson</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -9159,17 +9223,17 @@
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Masson</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -9179,24 +9243,24 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>McKerrow</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Alec</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -9206,24 +9270,24 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McKerrow</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Alec</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -9240,17 +9304,17 @@
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Meltzer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -9260,24 +9324,24 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Meltzer</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -9294,17 +9358,17 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -9326,7 +9390,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9341,24 +9405,24 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -9368,24 +9432,24 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -9395,7 +9459,7 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9471,7 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -9422,24 +9486,24 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -9461,7 +9525,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -9483,17 +9547,17 @@
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Theo</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -9510,17 +9574,17 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Theo</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -9537,17 +9601,17 @@
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -9564,17 +9628,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -9591,17 +9655,17 @@
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -9618,17 +9682,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -9650,7 +9714,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -9665,24 +9729,24 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -9699,17 +9763,17 @@
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -9719,24 +9783,24 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -9753,17 +9817,17 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -9785,7 +9849,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -9800,24 +9864,24 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -9827,24 +9891,24 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -9854,24 +9918,24 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -9881,7 +9945,7 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -9893,12 +9957,12 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -9920,7 +9984,7 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Brett Jason</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -9935,24 +9999,24 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Brett Jason</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -9969,22 +10033,22 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -9996,12 +10060,12 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -10023,17 +10087,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -10050,17 +10114,17 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Townsend</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -10077,17 +10141,17 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -10104,17 +10168,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -10124,7 +10188,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10200,7 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -10158,71 +10222,71 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -10239,17 +10303,17 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -10266,49 +10330,49 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -10320,17 +10384,17 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -10340,24 +10404,24 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -10367,24 +10431,24 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -10394,29 +10458,29 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -10428,17 +10492,17 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -10455,44 +10519,44 @@
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -10502,24 +10566,24 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -10529,24 +10593,24 @@
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -10563,17 +10627,17 @@
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10583,7 +10647,7 @@
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10595,12 +10659,12 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10610,24 +10674,24 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -10637,24 +10701,24 @@
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -10664,7 +10728,7 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10676,12 +10740,12 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -10703,7 +10767,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -10725,44 +10789,44 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10772,46 +10836,100 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
+          <t>van der Merwe</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Ingrid</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Letaba Tzaneen</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="25" customHeight="1">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="25" customHeight="1">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C117" s="3" t="inlineStr">
+      <c r="C119" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 115</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 117</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 60</t>
         </is>
@@ -10847,7 +10965,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 12:59</t>
+          <t>410W Registrees as of 13/04/2021 14:32</t>
         </is>
       </c>
     </row>
@@ -14888,7 +15006,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 12:59</t>
+          <t>410E Voting details as of 13/04/2021 14:32</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15343,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 12:59</t>
+          <t>410W Voting details as of 13/04/2021 14:32</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 14:32</t>
+          <t>MD410 Registrees as of 13/04/2021 18:59</t>
         </is>
       </c>
     </row>
@@ -3114,22 +3114,22 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -3146,27 +3146,27 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -3178,17 +3178,17 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -3210,17 +3210,17 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -3242,22 +3242,22 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -3274,22 +3274,22 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3299,24 +3299,24 @@
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3338,17 +3338,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -3402,17 +3402,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
@@ -3434,22 +3434,22 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -3459,34 +3459,34 @@
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
@@ -3498,17 +3498,17 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3518,29 +3518,29 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -3550,29 +3550,29 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
@@ -3626,22 +3626,22 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -3651,29 +3651,29 @@
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3710,29 +3710,29 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -3747,24 +3747,24 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -3774,34 +3774,34 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -3811,29 +3811,29 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -3843,24 +3843,24 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -3875,24 +3875,24 @@
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -3907,29 +3907,29 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -3946,22 +3946,22 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -4010,17 +4010,17 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -4030,29 +4030,29 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -4062,39 +4062,39 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
@@ -4106,22 +4106,22 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
@@ -4131,19 +4131,19 @@
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
@@ -4170,17 +4170,17 @@
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
@@ -4202,17 +4202,17 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4227,24 +4227,24 @@
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4254,29 +4254,29 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
@@ -4298,17 +4298,17 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
@@ -4362,17 +4362,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
@@ -4394,17 +4394,17 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4458,17 +4458,17 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -4478,39 +4478,39 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -4522,27 +4522,27 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -4554,27 +4554,27 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
@@ -4586,22 +4586,22 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4650,17 +4650,17 @@
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -4675,71 +4675,71 @@
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4751,12 @@
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -4778,17 +4778,17 @@
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -4803,24 +4803,24 @@
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4835,24 +4835,24 @@
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4867,24 +4867,24 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4906,17 +4906,17 @@
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4938,17 +4938,17 @@
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4963,24 +4963,24 @@
       </c>
       <c r="F142" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
@@ -5034,17 +5034,17 @@
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
@@ -5098,22 +5098,22 @@
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -5123,29 +5123,29 @@
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -5187,24 +5187,24 @@
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
@@ -5226,17 +5226,17 @@
     <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5246,29 +5246,29 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -5290,17 +5290,17 @@
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
@@ -5322,17 +5322,17 @@
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5354,17 +5354,17 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5386,27 +5386,27 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5418,27 +5418,27 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
@@ -5450,17 +5450,17 @@
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5475,24 +5475,24 @@
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -5507,24 +5507,24 @@
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -5578,17 +5578,17 @@
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
@@ -5642,17 +5642,17 @@
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5667,24 +5667,24 @@
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5706,17 +5706,17 @@
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -5770,12 +5770,12 @@
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr">
@@ -5802,22 +5802,22 @@
     <row r="169" ht="25" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5854,29 +5854,29 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5903,12 +5903,12 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5918,12 +5918,12 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5994,17 +5994,17 @@
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
@@ -6026,49 +6026,49 @@
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6083,29 +6083,29 @@
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr">
@@ -6115,24 +6115,24 @@
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6154,17 +6154,17 @@
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -6218,17 +6218,17 @@
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6243,29 +6243,29 @@
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
@@ -6282,17 +6282,17 @@
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -6346,17 +6346,17 @@
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -6366,39 +6366,39 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
@@ -6410,17 +6410,17 @@
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
@@ -6442,17 +6442,17 @@
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
@@ -6474,81 +6474,81 @@
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -6563,34 +6563,34 @@
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
@@ -6602,22 +6602,22 @@
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6634,17 +6634,17 @@
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -6654,29 +6654,29 @@
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -6686,29 +6686,29 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -6718,29 +6718,29 @@
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -6762,17 +6762,17 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -6794,17 +6794,17 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -6819,24 +6819,24 @@
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -6858,17 +6858,17 @@
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
@@ -6890,22 +6890,22 @@
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6915,24 +6915,24 @@
       </c>
       <c r="F203" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
@@ -6954,17 +6954,17 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -6979,24 +6979,24 @@
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7018,17 +7018,17 @@
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
@@ -7050,49 +7050,49 @@
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7102,29 +7102,29 @@
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -7134,29 +7134,29 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -7171,56 +7171,56 @@
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -7230,12 +7230,12 @@
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7247,12 +7247,12 @@
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
@@ -7274,17 +7274,17 @@
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -7299,24 +7299,24 @@
       </c>
       <c r="F215" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="216" ht="25" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -7326,29 +7326,29 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="217" ht="25" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -7370,17 +7370,17 @@
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -7434,17 +7434,17 @@
     <row r="220" ht="25" customHeight="1">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7459,24 +7459,24 @@
       </c>
       <c r="F220" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="221" ht="25" customHeight="1">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F221" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7503,12 +7503,12 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
@@ -7562,27 +7562,27 @@
     <row r="224" ht="25" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F224" s="3" t="inlineStr">
@@ -7594,17 +7594,17 @@
     <row r="225" ht="25" customHeight="1">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -7614,34 +7614,34 @@
       </c>
       <c r="E225" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F225" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="226" ht="25" customHeight="1">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7658,44 +7658,108 @@
     <row r="227" ht="25" customHeight="1">
       <c r="A227" s="3" t="inlineStr">
         <is>
+          <t>van der Westhuizen</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>Hennie</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>Helderberg</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F227" s="3" t="inlineStr">
+        <is>
+          <t>410W</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="25" customHeight="1">
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F228" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" ht="25" customHeight="1">
+      <c r="A229" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B227" s="3" t="inlineStr">
+      <c r="B229" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C227" s="3" t="inlineStr">
+      <c r="C229" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E227" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F227" s="3" t="inlineStr">
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F229" s="3" t="inlineStr">
         <is>
           <t>410E</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 225</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 227</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7731,7 +7795,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 14:32</t>
+          <t>410E Registrees as of 13/04/2021 18:59</t>
         </is>
       </c>
     </row>
@@ -10947,7 +11011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10965,7 +11029,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 14:32</t>
+          <t>410W Registrees as of 13/04/2021 18:59</t>
         </is>
       </c>
     </row>
@@ -12538,22 +12602,22 @@
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -12565,49 +12629,49 @@
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Kemp</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -12619,44 +12683,44 @@
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Kemp</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -12673,22 +12737,22 @@
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -12700,17 +12764,17 @@
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Koenze</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Alton</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -12720,24 +12784,24 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koenze</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Alton</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -12747,51 +12811,51 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -12808,17 +12872,17 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -12840,7 +12904,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -12855,29 +12919,29 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Langmaak</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Elke</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -12894,7 +12958,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>Elke</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -12916,22 +12980,22 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langmaak</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -12943,17 +13007,17 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -12963,24 +13027,24 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -12990,24 +13054,24 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -13029,7 +13093,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -13051,17 +13115,17 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -13078,49 +13142,49 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -13132,17 +13196,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Elisa</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -13152,24 +13216,24 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Elisa</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -13186,71 +13250,71 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Mosesd</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -13260,29 +13324,29 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Mosesd</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -13294,22 +13358,22 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Mutschler</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Grootfontein</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -13321,17 +13385,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Mutschler</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Grootfontein</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -13348,7 +13412,7 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -13358,7 +13422,7 @@
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -13380,12 +13444,12 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -13402,17 +13466,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -13429,17 +13493,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Nortjie</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -13449,24 +13513,24 @@
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Ocker</t>
+          <t>Nortjie</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -13488,7 +13552,7 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -13510,17 +13574,17 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Ocker</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Debra</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -13530,29 +13594,29 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Ormandy</t>
+          <t>Olivier</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Isabella Stratton</t>
+          <t>Debra</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -13564,22 +13628,22 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Ormandy</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Isabella Stratton</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -13591,17 +13655,17 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -13618,44 +13682,44 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Poyowe</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Yvonne  Maureen</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Poyowe</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Yvonne  Maureen</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -13672,22 +13736,22 @@
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -13699,17 +13763,17 @@
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -13719,24 +13783,24 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -13746,24 +13810,24 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -13773,24 +13837,24 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -13807,71 +13871,71 @@
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -13888,17 +13952,17 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -13920,7 +13984,7 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -13942,12 +14006,12 @@
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -13962,24 +14026,24 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -13996,17 +14060,17 @@
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -14028,7 +14092,7 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -14050,17 +14114,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -14077,17 +14141,17 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -14097,7 +14161,7 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14109,12 +14173,12 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -14124,7 +14188,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14200,7 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -14158,17 +14222,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -14178,56 +14242,56 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -14239,17 +14303,17 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -14266,17 +14330,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -14286,24 +14350,24 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -14320,44 +14384,44 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -14374,22 +14438,22 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -14401,22 +14465,22 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -14428,22 +14492,22 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Vorster</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -14455,22 +14519,22 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Vorster</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -14487,71 +14551,71 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
@@ -14563,22 +14627,22 @@
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Woodman</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Joan</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
@@ -14590,44 +14654,44 @@
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Woodman</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Joan</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -14637,7 +14701,7 @@
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14649,17 +14713,17 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Gerry</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -14671,44 +14735,44 @@
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Gerry</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -14730,7 +14794,7 @@
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -14752,22 +14816,22 @@
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -14779,44 +14843,44 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -14826,7 +14890,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14838,7 +14902,7 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -14853,24 +14917,24 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -14880,7 +14944,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14956,7 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -14907,7 +14971,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14919,7 +14983,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -14941,39 +15005,66 @@
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
+          <t>van Wulven</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>Deon</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Tygerberg Hills</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="25" customHeight="1">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
           <t>van der Westhuizen</t>
         </is>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B150" s="3" t="inlineStr">
         <is>
           <t>Hennie</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
+      <c r="C150" s="3" t="inlineStr">
         <is>
           <t>Helderberg</t>
         </is>
       </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E149" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 147</t>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 148</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 67</t>
         </is>
@@ -15006,7 +15097,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 14:32</t>
+          <t>410E Voting details as of 13/04/2021 18:59</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15434,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 14:32</t>
+          <t>410W Voting details as of 13/04/2021 18:59</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 18:59</t>
+          <t>MD410 Registrees as of 13/04/2021 21:20</t>
         </is>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 18:59</t>
+          <t>410E Registrees as of 13/04/2021 21:20</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 18:59</t>
+          <t>410W Registrees as of 13/04/2021 21:20</t>
         </is>
       </c>
     </row>
@@ -15097,7 +15097,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 18:59</t>
+          <t>410E Voting details as of 13/04/2021 21:20</t>
         </is>
       </c>
     </row>
@@ -15434,7 +15434,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 18:59</t>
+          <t>410W Voting details as of 13/04/2021 21:20</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 21:20</t>
+          <t>MD410 Registrees as of 13/04/2021 21:27</t>
         </is>
       </c>
     </row>
@@ -3306,22 +3306,22 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khoza</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Faniso</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3338,17 +3338,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3370,17 +3370,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -3434,17 +3434,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
@@ -3466,22 +3466,22 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -3491,34 +3491,34 @@
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
@@ -3530,17 +3530,17 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -3550,29 +3550,29 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -3582,29 +3582,29 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
@@ -3658,22 +3658,22 @@
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3683,29 +3683,29 @@
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -3715,24 +3715,24 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -3742,29 +3742,29 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -3779,24 +3779,24 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3806,34 +3806,34 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -3843,29 +3843,29 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3875,24 +3875,24 @@
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -3907,24 +3907,24 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -3939,29 +3939,29 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -3978,22 +3978,22 @@
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -4042,17 +4042,17 @@
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -4062,29 +4062,29 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4094,39 +4094,39 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -4138,22 +4138,22 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
@@ -4163,19 +4163,19 @@
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
@@ -4202,17 +4202,17 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
@@ -4234,17 +4234,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4259,24 +4259,24 @@
       </c>
       <c r="F120" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4286,29 +4286,29 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
@@ -4330,17 +4330,17 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
@@ -4394,17 +4394,17 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
@@ -4426,17 +4426,17 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -4490,17 +4490,17 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -4510,39 +4510,39 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -4554,27 +4554,27 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
@@ -4586,27 +4586,27 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
@@ -4618,22 +4618,22 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="F132" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -4682,17 +4682,17 @@
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -4707,71 +4707,71 @@
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4783,12 +4783,12 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -4810,17 +4810,17 @@
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4835,24 +4835,24 @@
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4867,24 +4867,24 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4899,24 +4899,24 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4938,17 +4938,17 @@
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4970,17 +4970,17 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4995,24 +4995,24 @@
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
@@ -5039,12 +5039,12 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
@@ -5066,17 +5066,17 @@
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="F146" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
@@ -5130,22 +5130,22 @@
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -5155,29 +5155,29 @@
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -5219,24 +5219,24 @@
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -5258,17 +5258,17 @@
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5278,29 +5278,29 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
@@ -5322,17 +5322,17 @@
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5354,17 +5354,17 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
@@ -5386,17 +5386,17 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5418,27 +5418,27 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
@@ -5450,27 +5450,27 @@
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
@@ -5482,17 +5482,17 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -5507,24 +5507,24 @@
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5539,24 +5539,24 @@
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -5610,17 +5610,17 @@
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
@@ -5674,17 +5674,17 @@
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5699,24 +5699,24 @@
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -5738,17 +5738,17 @@
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -5802,12 +5802,12 @@
     <row r="169" ht="25" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="D169" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
@@ -5834,22 +5834,22 @@
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -5886,29 +5886,29 @@
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="172" ht="25" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -6026,17 +6026,17 @@
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
@@ -6058,49 +6058,49 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6115,29 +6115,29 @@
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E179" s="3" t="inlineStr">
@@ -6147,24 +6147,24 @@
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -6186,17 +6186,17 @@
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -6250,22 +6250,22 @@
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
@@ -6282,22 +6282,22 @@
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
@@ -6307,24 +6307,24 @@
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
@@ -6410,17 +6410,17 @@
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -6435,39 +6435,39 @@
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6479,17 +6479,17 @@
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
@@ -6499,56 +6499,56 @@
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -6570,59 +6570,59 @@
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
@@ -6634,17 +6634,17 @@
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -6666,22 +6666,22 @@
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6698,54 +6698,54 @@
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6762,96 +6762,96 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6863,22 +6863,22 @@
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
@@ -6890,27 +6890,27 @@
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
@@ -6922,22 +6922,22 @@
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
@@ -6954,17 +6954,17 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -6979,24 +6979,24 @@
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7006,29 +7006,29 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
@@ -7050,17 +7050,17 @@
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -7114,54 +7114,54 @@
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
@@ -7178,59 +7178,59 @@
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
@@ -7242,17 +7242,17 @@
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -7338,17 +7338,17 @@
     <row r="217" ht="25" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="F217" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F218" s="3" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="219" ht="25" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -7498,17 +7498,17 @@
     <row r="222" ht="25" customHeight="1">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="F222" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7567,12 +7567,12 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -7599,12 +7599,12 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -7626,27 +7626,27 @@
     <row r="226" ht="25" customHeight="1">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F226" s="3" t="inlineStr">
@@ -7658,22 +7658,22 @@
     <row r="227" ht="25" customHeight="1">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
@@ -7683,24 +7683,24 @@
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="228" ht="25" customHeight="1">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -7715,51 +7715,83 @@
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="229" ht="25" customHeight="1">
       <c r="A229" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F229" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="25" customHeight="1">
+      <c r="A230" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B229" s="3" t="inlineStr">
+      <c r="B230" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C229" s="3" t="inlineStr">
+      <c r="C230" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D229" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E229" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F229" s="3" t="inlineStr">
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F230" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 227</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 228</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7795,7 +7827,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 21:20</t>
+          <t>410E Registrees as of 13/04/2021 21:27</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11061,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 21:20</t>
+          <t>410W Registrees as of 13/04/2021 21:27</t>
         </is>
       </c>
     </row>
@@ -15097,7 +15129,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 21:20</t>
+          <t>410E Voting details as of 13/04/2021 21:27</t>
         </is>
       </c>
     </row>
@@ -15434,7 +15466,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 21:20</t>
+          <t>410W Voting details as of 13/04/2021 21:27</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 21:27</t>
+          <t>MD410 Registrees as of 13/04/2021 22:42</t>
         </is>
       </c>
     </row>
@@ -778,17 +778,17 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Beukes-Williams</t>
+          <t>Benade</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cathleen</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Rehoboth</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -810,49 +810,49 @@
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Blakeman</t>
+          <t>Beukes-Williams</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Belinda</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Botha</t>
+          <t>Blakeman</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Lyn(ette)</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -874,17 +874,17 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Brooker</t>
+          <t>Botha</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Byron</t>
+          <t>Lyn(ette)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -906,22 +906,22 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Cadman</t>
+          <t>Brooker</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Byron</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -931,29 +931,29 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Calomiris</t>
+          <t>Cadman</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -970,27 +970,27 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Cannone</t>
+          <t>Calomiris</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Linda Ann</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1002,27 +1002,27 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Carstens</t>
+          <t>Cannone</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Petrus</t>
+          <t>Linda Ann</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1034,27 +1034,27 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Castle</t>
+          <t>Carstens</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Lizelle</t>
+          <t>Petrus</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1066,22 +1066,22 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Castle</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lizelle</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1098,17 +1098,17 @@
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Chazen</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Lionel</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1123,24 +1123,24 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Chetty</t>
+          <t>Chazen</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Lionel</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>East Coast</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1162,22 +1162,22 @@
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Chinyai</t>
+          <t>Chetty</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Tanyaradzwa</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1187,34 +1187,34 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Cloete</t>
+          <t>Chinyai</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Delaney Yeltsin</t>
+          <t>Tanyaradzwa</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -1226,49 +1226,49 @@
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Coppen</t>
+          <t>Cloete</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Delaney Yeltsin</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Cornelius</t>
+          <t>Coppen</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Esme</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1283,34 +1283,34 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Cottle</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Esme</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1322,22 +1322,22 @@
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>DE VILLIERS</t>
+          <t>Cottle</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1354,27 +1354,27 @@
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>DE VILLIERS</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Norma</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1418,22 +1418,22 @@
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>De Wet</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Norma</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1443,24 +1443,24 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Diener</t>
+          <t>De Wet</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Benita</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1470,29 +1470,29 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Dodd</t>
+          <t>Diener</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Freda</t>
+          <t>Benita</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1514,17 +1514,17 @@
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>Dodd</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Peggy</t>
+          <t>Freda</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1578,17 +1578,17 @@
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Glynn</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Glynn</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1642,27 +1642,27 @@
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Els</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -1674,22 +1674,22 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -1738,17 +1738,17 @@
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1763,24 +1763,24 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1795,24 +1795,24 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -1866,17 +1866,17 @@
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Fouché</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Jéan</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1898,17 +1898,17 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Fouché</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Jéan</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1923,24 +1923,24 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2058,17 +2058,17 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2090,17 +2090,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2110,29 +2110,29 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -2186,17 +2186,17 @@
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -2250,17 +2250,17 @@
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -2270,39 +2270,39 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
@@ -2314,17 +2314,17 @@
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -2334,66 +2334,66 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2410,22 +2410,22 @@
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2435,24 +2435,24 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2474,17 +2474,17 @@
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2499,24 +2499,24 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2526,29 +2526,29 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2563,34 +2563,34 @@
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -2602,22 +2602,22 @@
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2627,24 +2627,24 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2666,17 +2666,17 @@
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2730,17 +2730,17 @@
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -2794,17 +2794,17 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
@@ -2858,22 +2858,22 @@
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Huysamen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -2890,49 +2890,49 @@
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Huysamen</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -2954,22 +2954,22 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
@@ -3018,17 +3018,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -3050,22 +3050,22 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -3114,27 +3114,27 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Kahn</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -3146,22 +3146,22 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3178,27 +3178,27 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -3210,17 +3210,17 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
@@ -3242,17 +3242,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3274,22 +3274,22 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3306,17 +3306,17 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Khoza</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Faniso</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3331,29 +3331,29 @@
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khoza</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Faniso</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
@@ -3370,17 +3370,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -3402,17 +3402,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -3466,17 +3466,17 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
@@ -3498,22 +3498,22 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -3523,34 +3523,34 @@
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
@@ -3562,17 +3562,17 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -3582,29 +3582,29 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -3614,29 +3614,29 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
@@ -3690,22 +3690,22 @@
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -3715,29 +3715,29 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -3747,24 +3747,24 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -3774,29 +3774,29 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3811,24 +3811,24 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3838,34 +3838,34 @@
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3875,29 +3875,29 @@
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3907,24 +3907,24 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -3939,24 +3939,24 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3971,29 +3971,29 @@
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4010,22 +4010,22 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -4074,17 +4074,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4094,29 +4094,29 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4126,39 +4126,39 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
@@ -4170,22 +4170,22 @@
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
@@ -4195,19 +4195,19 @@
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
@@ -4234,17 +4234,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
@@ -4266,17 +4266,17 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4291,24 +4291,24 @@
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4318,29 +4318,29 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
@@ -4362,17 +4362,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
@@ -4426,17 +4426,17 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4458,17 +4458,17 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -4522,17 +4522,17 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -4542,39 +4542,39 @@
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
@@ -4586,27 +4586,27 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
@@ -4618,27 +4618,27 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr">
@@ -4650,22 +4650,22 @@
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4714,17 +4714,17 @@
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -4739,71 +4739,71 @@
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4842,17 +4842,17 @@
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4867,24 +4867,24 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4899,24 +4899,24 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4931,24 +4931,24 @@
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4970,17 +4970,17 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -5002,17 +5002,17 @@
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5027,24 +5027,24 @@
       </c>
       <c r="F144" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
@@ -5098,17 +5098,17 @@
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
@@ -5162,22 +5162,22 @@
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5187,29 +5187,29 @@
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -5251,24 +5251,24 @@
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -5290,17 +5290,17 @@
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5310,29 +5310,29 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5354,17 +5354,17 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
@@ -5386,17 +5386,17 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5450,27 +5450,27 @@
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
@@ -5482,27 +5482,27 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
@@ -5514,17 +5514,17 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5539,24 +5539,24 @@
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5571,24 +5571,24 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -5642,17 +5642,17 @@
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
@@ -5706,17 +5706,17 @@
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -5731,24 +5731,24 @@
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -5770,17 +5770,17 @@
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -5834,12 +5834,12 @@
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5849,12 +5849,12 @@
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr">
@@ -5866,22 +5866,22 @@
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5903,12 +5903,12 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5918,29 +5918,29 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="173" ht="25" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -5982,12 +5982,12 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -6058,17 +6058,17 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
@@ -6090,49 +6090,49 @@
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6147,29 +6147,29 @@
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
@@ -6179,24 +6179,24 @@
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -6218,17 +6218,17 @@
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -6282,22 +6282,22 @@
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
@@ -6314,22 +6314,22 @@
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
@@ -6339,24 +6339,24 @@
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
@@ -6442,17 +6442,17 @@
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -6467,39 +6467,39 @@
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6511,17 +6511,17 @@
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -6531,56 +6531,56 @@
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -6602,59 +6602,59 @@
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
@@ -6666,17 +6666,17 @@
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -6698,22 +6698,22 @@
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6730,54 +6730,54 @@
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
@@ -6794,96 +6794,96 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6895,22 +6895,22 @@
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
@@ -6922,27 +6922,27 @@
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
@@ -6954,22 +6954,22 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
@@ -6986,17 +6986,17 @@
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7011,24 +7011,24 @@
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -7038,29 +7038,29 @@
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -7082,17 +7082,17 @@
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -7146,54 +7146,54 @@
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
@@ -7210,59 +7210,59 @@
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
@@ -7274,17 +7274,17 @@
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F215" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F216" s="3" t="inlineStr">
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -7370,17 +7370,17 @@
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="F218" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -7434,17 +7434,17 @@
     <row r="220" ht="25" customHeight="1">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -7530,17 +7530,17 @@
     <row r="223" ht="25" customHeight="1">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7567,12 +7567,12 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -7599,12 +7599,12 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -7658,27 +7658,27 @@
     <row r="227" ht="25" customHeight="1">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F227" s="3" t="inlineStr">
@@ -7690,22 +7690,22 @@
     <row r="228" ht="25" customHeight="1">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7715,24 +7715,24 @@
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="229" ht="25" customHeight="1">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -7747,51 +7747,83 @@
       </c>
       <c r="F229" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="230" ht="25" customHeight="1">
       <c r="A230" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F230" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="25" customHeight="1">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B230" s="3" t="inlineStr">
+      <c r="B231" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C230" s="3" t="inlineStr">
+      <c r="C231" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D230" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E230" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F230" s="3" t="inlineStr">
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F231" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 228</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 229</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7827,7 +7859,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 21:27</t>
+          <t>410E Registrees as of 13/04/2021 22:42</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11061,7 +11093,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 21:27</t>
+          <t>410W Registrees as of 13/04/2021 22:42</t>
         </is>
       </c>
     </row>
@@ -11365,17 +11397,17 @@
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Beukes-Williams</t>
+          <t>Benade</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cathleen</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Rehoboth</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -11385,29 +11417,29 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Buhrmann</t>
+          <t>Beukes-Williams</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Nelle</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -11419,22 +11451,22 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Cadman</t>
+          <t>Buhrmann</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Nelle</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -11446,22 +11478,22 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Calomiris</t>
+          <t>Cadman</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -11473,103 +11505,103 @@
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Cannone</t>
+          <t>Calomiris</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Linda Ann</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Carstens</t>
+          <t>Cannone</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Petrus</t>
+          <t>Linda Ann</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Castle</t>
+          <t>Carstens</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Lizelle</t>
+          <t>Petrus</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Castle</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lizelle</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -11581,22 +11613,22 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Chinyai</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Tanyaradzwa</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -11608,103 +11640,103 @@
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Cloete</t>
+          <t>Chinyai</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Delaney Yeltsin</t>
+          <t>Tanyaradzwa</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Cornelius</t>
+          <t>Cloete</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Esme</t>
+          <t>Delaney Yeltsin</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Cottle</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Esme</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>DE VILLIERS</t>
+          <t>Cottle</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -11716,27 +11748,27 @@
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>DE VILLIERS</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11780,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Norma</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -11758,7 +11790,7 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -11770,76 +11802,76 @@
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Diener</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Benita</t>
+          <t>Norma</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Dunn</t>
+          <t>Diener</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Hanè</t>
+          <t>Benita</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Hanè</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -11856,12 +11888,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -11871,88 +11903,88 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Etridge</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Etridge</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Fahrbach</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11964,7 +11996,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Beate</t>
+          <t>Roger</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -11986,22 +12018,22 @@
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Fahrbach</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Beate</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -12018,7 +12050,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -12033,24 +12065,24 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -12060,19 +12092,19 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -12087,7 +12119,7 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12131,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Pat</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -12121,17 +12153,17 @@
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Pat</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -12141,24 +12173,24 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -12168,83 +12200,83 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Grobler</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Matty</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Henties Bay</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Groenewoud</t>
+          <t>Grobler</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Christiana</t>
+          <t>Matty</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Henties Bay</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -12256,49 +12288,49 @@
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Groenewoud</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>Christiana</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -12310,22 +12342,22 @@
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -12337,17 +12369,17 @@
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -12357,51 +12389,51 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Hess</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Dorothy</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -12418,22 +12450,22 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Hoffmann</t>
+          <t>Hess</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Ellen G W</t>
+          <t>Dorothy</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -12445,17 +12477,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hoffmann</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Ellen G W</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -12465,7 +12497,7 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12477,7 +12509,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -12492,34 +12524,34 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12531,39 +12563,39 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -12573,29 +12605,29 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -12607,17 +12639,17 @@
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -12634,49 +12666,49 @@
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Kahn</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -12688,49 +12720,49 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Kemp</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -12742,44 +12774,44 @@
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Kemp</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -12796,22 +12828,22 @@
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -12823,17 +12855,17 @@
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Koenze</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Alton</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -12843,24 +12875,24 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koenze</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Alton</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -12870,51 +12902,51 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -12931,17 +12963,17 @@
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -12963,7 +12995,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -12978,29 +13010,29 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Langmaak</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Elke</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
@@ -13017,7 +13049,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>Elke</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -13039,22 +13071,22 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langmaak</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
@@ -13066,17 +13098,17 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -13086,24 +13118,24 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -13113,24 +13145,24 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -13152,7 +13184,7 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -13174,17 +13206,17 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -13201,49 +13233,49 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
@@ -13255,17 +13287,17 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Elisa</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -13275,24 +13307,24 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Elisa</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -13309,71 +13341,71 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Mosesd</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -13383,29 +13415,29 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Mosesd</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -13417,22 +13449,22 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Mutschler</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Grootfontein</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -13444,17 +13476,17 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Mutschler</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Grootfontein</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -13471,7 +13503,7 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -13481,7 +13513,7 @@
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -13503,12 +13535,12 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -13525,17 +13557,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -13552,17 +13584,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Nortjie</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -13572,24 +13604,24 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Ocker</t>
+          <t>Nortjie</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -13611,7 +13643,7 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -13633,17 +13665,17 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Ocker</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Debra</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -13653,29 +13685,29 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Ormandy</t>
+          <t>Olivier</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Isabella Stratton</t>
+          <t>Debra</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -13687,22 +13719,22 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Ormandy</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Isabella Stratton</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -13714,17 +13746,17 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -13741,44 +13773,44 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Poyowe</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Yvonne  Maureen</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Poyowe</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Yvonne  Maureen</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -13795,22 +13827,22 @@
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -13822,17 +13854,17 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -13842,24 +13874,24 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -13869,24 +13901,24 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -13896,24 +13928,24 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -13930,71 +13962,71 @@
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -14011,17 +14043,17 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -14043,7 +14075,7 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -14065,12 +14097,12 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -14085,24 +14117,24 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -14119,17 +14151,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -14151,7 +14183,7 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -14173,17 +14205,17 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -14200,17 +14232,17 @@
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -14220,7 +14252,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14232,12 +14264,12 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -14247,7 +14279,7 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14259,7 +14291,7 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -14281,17 +14313,17 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -14301,56 +14333,56 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
@@ -14362,17 +14394,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -14389,17 +14421,17 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -14409,24 +14441,24 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -14443,44 +14475,44 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -14497,22 +14529,22 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -14524,22 +14556,22 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -14551,22 +14583,22 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Vorster</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -14578,22 +14610,22 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Vorster</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -14610,71 +14642,71 @@
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
@@ -14686,22 +14718,22 @@
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Woodman</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Joan</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
@@ -14713,44 +14745,44 @@
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Woodman</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Joan</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -14760,7 +14792,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14772,17 +14804,17 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Gerry</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -14794,44 +14826,44 @@
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Gerry</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -14853,7 +14885,7 @@
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -14875,22 +14907,22 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -14902,44 +14934,44 @@
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -14949,7 +14981,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14993,7 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -14976,24 +15008,24 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -15003,7 +15035,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15015,7 +15047,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -15030,7 +15062,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -15042,7 +15074,7 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -15064,39 +15096,66 @@
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
+          <t>van Wulven</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>Deon</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Tygerberg Hills</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="25" customHeight="1">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
           <t>van der Westhuizen</t>
         </is>
       </c>
-      <c r="B150" s="3" t="inlineStr">
+      <c r="B151" s="3" t="inlineStr">
         <is>
           <t>Hennie</t>
         </is>
       </c>
-      <c r="C150" s="3" t="inlineStr">
+      <c r="C151" s="3" t="inlineStr">
         <is>
           <t>Helderberg</t>
         </is>
       </c>
-      <c r="D150" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 148</t>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 149</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 67</t>
         </is>
@@ -15129,7 +15188,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 21:27</t>
+          <t>410E Voting details as of 13/04/2021 22:42</t>
         </is>
       </c>
     </row>
@@ -15466,7 +15525,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 21:27</t>
+          <t>410W Voting details as of 13/04/2021 22:42</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 13/04/2021 22:42</t>
+          <t>MD410 Registrees as of 14/04/2021 14:25</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7859,7 +7859,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 13/04/2021 22:42</t>
+          <t>410E Registrees as of 14/04/2021 14:25</t>
         </is>
       </c>
     </row>
@@ -10323,22 +10323,22 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -10397,29 +10397,29 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -10431,17 +10431,17 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -10451,24 +10451,24 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -10478,24 +10478,24 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -10505,29 +10505,29 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -10539,17 +10539,17 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -10566,17 +10566,17 @@
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -10586,24 +10586,24 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -10620,17 +10620,17 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -10640,61 +10640,61 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -10728,17 +10728,17 @@
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -10748,24 +10748,24 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10782,17 +10782,17 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -10863,17 +10863,17 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10895,12 +10895,12 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -10922,12 +10922,12 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -10949,12 +10949,12 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10971,49 +10971,49 @@
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
@@ -11025,39 +11025,66 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="25" customHeight="1">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
+      <c r="C120" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 117</t>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 118</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 60</t>
         </is>
@@ -11093,7 +11120,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 13/04/2021 22:42</t>
+          <t>410W Registrees as of 14/04/2021 14:25</t>
         </is>
       </c>
     </row>
@@ -15188,7 +15215,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 13/04/2021 22:42</t>
+          <t>410E Voting details as of 14/04/2021 14:25</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15552,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 13/04/2021 22:42</t>
+          <t>410W Voting details as of 14/04/2021 14:25</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 15/04/2021 09:11</t>
+          <t>MD410 Registrees as of 16/04/2021 09:40</t>
         </is>
       </c>
     </row>
@@ -906,54 +906,54 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Cadman</t>
+          <t>Byars</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Manzini</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Calomiris</t>
+          <t>Cadman</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -970,27 +970,27 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Cannone</t>
+          <t>Calomiris</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Linda Ann</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1002,27 +1002,27 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Carstens</t>
+          <t>Cannone</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Petrus</t>
+          <t>Linda Ann</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1034,27 +1034,27 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Castle</t>
+          <t>Carstens</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Lizelle</t>
+          <t>Petrus</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1066,22 +1066,22 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Castle</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lizelle</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1098,17 +1098,17 @@
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Chazen</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Lionel</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1123,24 +1123,24 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Chetty</t>
+          <t>Chazen</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Lionel</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>East Coast</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1162,22 +1162,22 @@
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Chinyai</t>
+          <t>Chetty</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Tanyaradzwa</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1187,34 +1187,34 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Cloete</t>
+          <t>Chinyai</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Delaney Yeltsin</t>
+          <t>Tanyaradzwa</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -1226,49 +1226,49 @@
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Coppen</t>
+          <t>Cloete</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Delaney Yeltsin</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Cornelius</t>
+          <t>Coppen</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Esme</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1283,34 +1283,34 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Cottle</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Esme</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1322,22 +1322,22 @@
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>DE VILLIERS</t>
+          <t>Cottle</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1354,27 +1354,27 @@
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>DE VILLIERS</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Norma</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1418,22 +1418,22 @@
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>De Wet</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Norma</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1443,24 +1443,24 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Diener</t>
+          <t>De Wet</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Benita</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1470,29 +1470,29 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Dodd</t>
+          <t>Diener</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Freda</t>
+          <t>Benita</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1514,17 +1514,17 @@
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>Dodd</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Peggy</t>
+          <t>Freda</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1578,17 +1578,17 @@
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Glynn</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Glynn</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1642,27 +1642,27 @@
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Els</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -1674,22 +1674,22 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -1738,17 +1738,17 @@
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1763,24 +1763,24 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1795,24 +1795,24 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -1866,17 +1866,17 @@
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Fouché</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Jéan</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1898,17 +1898,17 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Fouché</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Jéan</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1923,24 +1923,24 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2058,17 +2058,17 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2090,17 +2090,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2110,29 +2110,29 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -2186,17 +2186,17 @@
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -2250,17 +2250,17 @@
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -2270,39 +2270,39 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
@@ -2314,17 +2314,17 @@
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -2334,66 +2334,66 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2410,22 +2410,22 @@
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2435,24 +2435,24 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2474,17 +2474,17 @@
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2499,24 +2499,24 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2526,29 +2526,29 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2563,34 +2563,34 @@
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -2602,22 +2602,22 @@
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2627,24 +2627,24 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2666,17 +2666,17 @@
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2730,17 +2730,17 @@
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -2794,17 +2794,17 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
@@ -2858,22 +2858,22 @@
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Huysamen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -2890,49 +2890,49 @@
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Huysamen</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -2954,22 +2954,22 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
@@ -3018,17 +3018,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -3050,22 +3050,22 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -3114,27 +3114,27 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Kahn</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -3146,22 +3146,22 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3178,27 +3178,27 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -3210,17 +3210,17 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
@@ -3242,17 +3242,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3274,22 +3274,22 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3306,17 +3306,17 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Khoza</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Faniso</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3331,29 +3331,29 @@
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khoza</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Faniso</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
@@ -3370,17 +3370,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -3402,17 +3402,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -3466,17 +3466,17 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
@@ -3498,22 +3498,22 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -3523,34 +3523,34 @@
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
@@ -3562,17 +3562,17 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -3582,29 +3582,29 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -3614,29 +3614,29 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
@@ -3690,22 +3690,22 @@
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -3715,29 +3715,29 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -3747,24 +3747,24 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -3774,29 +3774,29 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3811,24 +3811,24 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3838,34 +3838,34 @@
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3875,29 +3875,29 @@
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3907,24 +3907,24 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -3939,24 +3939,24 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3971,29 +3971,29 @@
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4010,22 +4010,22 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -4074,17 +4074,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4094,29 +4094,29 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4126,39 +4126,39 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
@@ -4170,22 +4170,22 @@
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
@@ -4195,19 +4195,19 @@
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
@@ -4234,17 +4234,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
@@ -4266,17 +4266,17 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4291,24 +4291,24 @@
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4318,29 +4318,29 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
@@ -4362,17 +4362,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
@@ -4426,17 +4426,17 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4458,17 +4458,17 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -4522,17 +4522,17 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -4542,39 +4542,39 @@
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
@@ -4586,27 +4586,27 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
@@ -4618,27 +4618,27 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr">
@@ -4650,22 +4650,22 @@
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4714,17 +4714,17 @@
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -4739,71 +4739,71 @@
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -4842,17 +4842,17 @@
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4867,24 +4867,24 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4899,24 +4899,24 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4931,24 +4931,24 @@
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4970,17 +4970,17 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -5002,17 +5002,17 @@
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5027,24 +5027,24 @@
       </c>
       <c r="F144" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
@@ -5098,17 +5098,17 @@
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
@@ -5162,22 +5162,22 @@
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5187,29 +5187,29 @@
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -5251,24 +5251,24 @@
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -5290,17 +5290,17 @@
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5310,29 +5310,29 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5354,17 +5354,17 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
@@ -5386,17 +5386,17 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5450,27 +5450,27 @@
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
@@ -5482,27 +5482,27 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
@@ -5514,17 +5514,17 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5539,24 +5539,24 @@
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5571,24 +5571,24 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -5642,17 +5642,17 @@
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
@@ -5706,17 +5706,17 @@
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -5731,24 +5731,24 @@
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -5770,17 +5770,17 @@
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -5834,12 +5834,12 @@
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5849,12 +5849,12 @@
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr">
@@ -5866,22 +5866,22 @@
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5903,12 +5903,12 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5918,29 +5918,29 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="173" ht="25" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -5982,12 +5982,12 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -6058,17 +6058,17 @@
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
@@ -6090,49 +6090,49 @@
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6147,29 +6147,29 @@
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
@@ -6179,24 +6179,24 @@
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -6218,17 +6218,17 @@
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -6282,22 +6282,22 @@
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
@@ -6314,22 +6314,22 @@
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
@@ -6339,24 +6339,24 @@
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
@@ -6442,17 +6442,17 @@
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -6467,39 +6467,39 @@
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6511,17 +6511,17 @@
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -6531,56 +6531,56 @@
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -6602,59 +6602,59 @@
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
@@ -6666,17 +6666,17 @@
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -6698,22 +6698,22 @@
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6730,54 +6730,54 @@
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
@@ -6794,96 +6794,96 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6895,22 +6895,22 @@
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
@@ -6922,27 +6922,27 @@
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
@@ -6954,22 +6954,22 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
@@ -6986,17 +6986,17 @@
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7011,24 +7011,24 @@
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -7038,29 +7038,29 @@
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -7082,17 +7082,17 @@
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -7146,54 +7146,54 @@
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
@@ -7210,59 +7210,59 @@
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
@@ -7274,17 +7274,17 @@
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F215" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F216" s="3" t="inlineStr">
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -7370,17 +7370,17 @@
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="F218" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -7434,17 +7434,17 @@
     <row r="220" ht="25" customHeight="1">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -7530,17 +7530,17 @@
     <row r="223" ht="25" customHeight="1">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7567,12 +7567,12 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -7599,12 +7599,12 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -7658,27 +7658,27 @@
     <row r="227" ht="25" customHeight="1">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F227" s="3" t="inlineStr">
@@ -7690,22 +7690,22 @@
     <row r="228" ht="25" customHeight="1">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7715,24 +7715,24 @@
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="229" ht="25" customHeight="1">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -7747,51 +7747,83 @@
       </c>
       <c r="F229" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="230" ht="25" customHeight="1">
       <c r="A230" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F230" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="25" customHeight="1">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B230" s="3" t="inlineStr">
+      <c r="B231" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C230" s="3" t="inlineStr">
+      <c r="C231" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D230" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E230" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F230" s="3" t="inlineStr">
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F231" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 228</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 229</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7809,7 +7841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7827,7 +7859,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 15/04/2021 09:11</t>
+          <t>410E Registrees as of 16/04/2021 09:40</t>
         </is>
       </c>
     </row>
@@ -8023,17 +8055,17 @@
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Chazen</t>
+          <t>Byars</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Lionel</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Manzini</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -8050,17 +8082,17 @@
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Chetty</t>
+          <t>Chazen</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Lionel</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>East Coast</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -8077,22 +8109,22 @@
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Coppen</t>
+          <t>Chetty</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -8104,17 +8136,17 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Davids</t>
+          <t>Coppen</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Melanie</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -8131,22 +8163,22 @@
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>De Wet</t>
+          <t>Davids</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Melanie</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -8158,17 +8190,17 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>De Wet</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peggy</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -8178,7 +8210,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8222,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -8212,17 +8244,17 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Glynn</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -8244,7 +8276,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Glynn</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -8266,71 +8298,71 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Els</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -8347,17 +8379,17 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -8379,7 +8411,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -8406,7 +8438,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -8428,17 +8460,17 @@
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -8455,17 +8487,17 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -8487,7 +8519,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -8502,24 +8534,24 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -8529,7 +8561,7 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8573,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -8556,100 +8588,100 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>HERMANUS</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MBULELO</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>HERMANUS</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>MBULELO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -8659,29 +8691,29 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -8691,24 +8723,24 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -8718,24 +8750,24 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -8752,17 +8784,17 @@
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -8772,7 +8804,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8784,7 +8816,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -8806,17 +8838,17 @@
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -8838,7 +8870,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -8853,24 +8885,24 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -8880,24 +8912,24 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -8914,17 +8946,17 @@
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -8934,24 +8966,24 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -8968,17 +9000,17 @@
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -8988,7 +9020,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -9000,7 +9032,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -9022,17 +9054,17 @@
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -9042,29 +9074,29 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -9081,7 +9113,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Niqula</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -9103,22 +9135,22 @@
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Niqula</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -9130,17 +9162,17 @@
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Labuschagne</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -9157,22 +9189,22 @@
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Labuschagne</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -9184,39 +9216,39 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -9231,24 +9263,24 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -9265,17 +9297,17 @@
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -9285,24 +9317,24 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -9319,12 +9351,12 @@
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -9339,24 +9371,24 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Masson</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -9373,17 +9405,17 @@
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Masson</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -9393,24 +9425,24 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>McKerrow</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Alec</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -9420,24 +9452,24 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McKerrow</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Alec</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -9454,17 +9486,17 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Meltzer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -9474,24 +9506,24 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Meltzer</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -9508,17 +9540,17 @@
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -9540,7 +9572,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -9555,24 +9587,24 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -9582,24 +9614,24 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -9609,7 +9641,7 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9653,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -9636,24 +9668,24 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -9675,7 +9707,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -9697,17 +9729,17 @@
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Theo</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -9724,17 +9756,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Theo</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -9751,17 +9783,17 @@
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -9778,17 +9810,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -9805,17 +9837,17 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -9832,17 +9864,17 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -9864,7 +9896,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -9879,24 +9911,24 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -9913,17 +9945,17 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -9933,24 +9965,24 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -9967,17 +9999,17 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -9999,7 +10031,7 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -10014,24 +10046,24 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -10041,24 +10073,24 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -10068,24 +10100,24 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -10095,7 +10127,7 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10107,12 +10139,12 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -10134,7 +10166,7 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Brett Jason</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -10149,29 +10181,29 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Brett Jason</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -10183,22 +10215,22 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -10210,17 +10242,17 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -10237,17 +10269,17 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -10269,7 +10301,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -10291,17 +10323,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Townsend</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -10318,22 +10350,22 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
@@ -10345,22 +10377,22 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -10377,7 +10409,7 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -10392,7 +10424,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10404,7 +10436,7 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -10419,29 +10451,29 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -10453,17 +10485,17 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -10473,24 +10505,24 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -10500,24 +10532,24 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -10527,29 +10559,29 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -10561,17 +10593,17 @@
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -10588,17 +10620,17 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -10608,24 +10640,24 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -10642,17 +10674,17 @@
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -10662,61 +10694,61 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10728,7 +10760,7 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -10750,17 +10782,17 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10770,24 +10802,24 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -10804,17 +10836,17 @@
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -10836,7 +10868,7 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -10851,7 +10883,7 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10863,12 +10895,12 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -10885,17 +10917,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -10905,7 +10937,7 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10917,12 +10949,12 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10944,12 +10976,12 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -10971,12 +11003,12 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -10993,49 +11025,49 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
@@ -11047,39 +11079,66 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="25" customHeight="1">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B122" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
+      <c r="C122" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 119</t>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 60</t>
         </is>
@@ -11115,7 +11174,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 15/04/2021 09:11</t>
+          <t>410W Registrees as of 16/04/2021 09:40</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15215,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 15/04/2021 09:11</t>
+          <t>410E Voting details as of 16/04/2021 09:40</t>
         </is>
       </c>
     </row>
@@ -15493,7 +15552,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 15/04/2021 09:11</t>
+          <t>410W Voting details as of 16/04/2021 09:40</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 16/04/2021 09:40</t>
+          <t>MD410 Registrees as of 18/04/2021 21:32</t>
         </is>
       </c>
     </row>
@@ -5002,17 +5002,17 @@
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Paijmans</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Bronwyn Anne</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
@@ -5034,17 +5034,17 @@
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5059,24 +5059,24 @@
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
@@ -5130,17 +5130,17 @@
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
@@ -5194,22 +5194,22 @@
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
@@ -5219,29 +5219,29 @@
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -5283,24 +5283,24 @@
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
@@ -5322,17 +5322,17 @@
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5342,29 +5342,29 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
@@ -5386,17 +5386,17 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
@@ -5450,17 +5450,17 @@
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5482,27 +5482,27 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
@@ -5514,27 +5514,27 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
@@ -5546,17 +5546,17 @@
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5571,24 +5571,24 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -5603,24 +5603,24 @@
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -5674,17 +5674,17 @@
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
@@ -5738,17 +5738,17 @@
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -5763,24 +5763,24 @@
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5802,17 +5802,17 @@
     <row r="169" ht="25" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5866,12 +5866,12 @@
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
@@ -5898,22 +5898,22 @@
     <row r="172" ht="25" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -5950,29 +5950,29 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="174" ht="25" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6031,12 +6031,12 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -6090,17 +6090,17 @@
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
@@ -6122,49 +6122,49 @@
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -6179,29 +6179,29 @@
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
@@ -6211,24 +6211,24 @@
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6250,17 +6250,17 @@
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -6314,22 +6314,22 @@
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
@@ -6346,22 +6346,22 @@
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
@@ -6371,24 +6371,24 @@
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
@@ -6474,17 +6474,17 @@
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -6499,39 +6499,39 @@
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6543,17 +6543,17 @@
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6563,56 +6563,56 @@
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -6634,59 +6634,59 @@
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
@@ -6698,17 +6698,17 @@
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -6730,22 +6730,22 @@
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6762,54 +6762,54 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6826,96 +6826,96 @@
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6927,22 +6927,22 @@
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
@@ -6954,27 +6954,27 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
@@ -6986,22 +6986,22 @@
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -7018,17 +7018,17 @@
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -7043,24 +7043,24 @@
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -7070,29 +7070,29 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -7114,17 +7114,17 @@
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -7178,54 +7178,54 @@
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr">
@@ -7242,59 +7242,59 @@
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
@@ -7306,17 +7306,17 @@
     <row r="216" ht="25" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E217" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F217" s="3" t="inlineStr">
@@ -7375,12 +7375,12 @@
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="219" ht="25" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
@@ -7466,17 +7466,17 @@
     <row r="221" ht="25" customHeight="1">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F222" s="3" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
@@ -7562,17 +7562,17 @@
     <row r="224" ht="25" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="F224" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7599,12 +7599,12 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -7663,12 +7663,12 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -7690,27 +7690,27 @@
     <row r="228" ht="25" customHeight="1">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F228" s="3" t="inlineStr">
@@ -7722,22 +7722,22 @@
     <row r="229" ht="25" customHeight="1">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E229" s="3" t="inlineStr">
@@ -7747,24 +7747,24 @@
       </c>
       <c r="F229" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="230" ht="25" customHeight="1">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -7779,51 +7779,83 @@
       </c>
       <c r="F230" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="231" ht="25" customHeight="1">
       <c r="A231" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F231" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="25" customHeight="1">
+      <c r="A232" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B231" s="3" t="inlineStr">
+      <c r="B232" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C231" s="3" t="inlineStr">
+      <c r="C232" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D231" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E231" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F231" s="3" t="inlineStr">
+      <c r="D232" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F232" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 229</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 230</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7841,7 +7873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7859,7 +7891,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 16/04/2021 09:40</t>
+          <t>410E Registrees as of 18/04/2021 21:32</t>
         </is>
       </c>
     </row>
@@ -9864,17 +9896,17 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Paijmans</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Bronwyn Anne</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -9884,24 +9916,24 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -9923,7 +9955,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -9938,24 +9970,24 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -9972,17 +10004,17 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -9992,24 +10024,24 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -10026,17 +10058,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -10058,7 +10090,7 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -10073,24 +10105,24 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -10100,24 +10132,24 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -10127,24 +10159,24 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -10154,7 +10186,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10166,12 +10198,12 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -10193,7 +10225,7 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Brett Jason</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -10208,29 +10240,29 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Brett Jason</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -10242,22 +10274,22 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -10269,17 +10301,17 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -10296,17 +10328,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -10328,7 +10360,7 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -10350,17 +10382,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Townsend</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -10377,22 +10409,22 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -10404,22 +10436,22 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -10436,7 +10468,7 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -10451,7 +10483,7 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10495,7 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -10478,29 +10510,29 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -10512,17 +10544,17 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -10532,24 +10564,24 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -10559,24 +10591,24 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -10586,29 +10618,29 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -10620,17 +10652,17 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -10647,17 +10679,17 @@
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -10667,24 +10699,24 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -10701,17 +10733,17 @@
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -10721,61 +10753,61 @@
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10787,7 +10819,7 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -10809,17 +10841,17 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -10829,24 +10861,24 @@
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -10863,17 +10895,17 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -10895,7 +10927,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -10910,7 +10942,7 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10922,12 +10954,12 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -10944,17 +10976,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10964,7 +10996,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10976,12 +11008,12 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -11003,12 +11035,12 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -11030,12 +11062,12 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -11052,49 +11084,49 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
@@ -11106,39 +11138,66 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="25" customHeight="1">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="B123" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C122" s="3" t="inlineStr">
+      <c r="C123" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D122" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E122" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 120</t>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 121</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 60</t>
         </is>
@@ -11174,7 +11233,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 16/04/2021 09:40</t>
+          <t>410W Registrees as of 18/04/2021 21:32</t>
         </is>
       </c>
     </row>
@@ -15215,7 +15274,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 16/04/2021 09:40</t>
+          <t>410E Voting details as of 18/04/2021 21:32</t>
         </is>
       </c>
     </row>
@@ -15552,7 +15611,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 16/04/2021 09:40</t>
+          <t>410W Voting details as of 18/04/2021 21:32</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F234"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 18/04/2021 21:32</t>
+          <t>MD410 Registrees as of 19/04/2021 10:15</t>
         </is>
       </c>
     </row>
@@ -4906,17 +4906,17 @@
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Ngobozana</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Sphiwe</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4926,29 +4926,29 @@
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4963,24 +4963,24 @@
       </c>
       <c r="F142" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -5002,17 +5002,17 @@
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Paijmans</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Bronwyn Anne</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
@@ -5034,17 +5034,17 @@
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Paijmans</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Bronwyn Anne</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
@@ -5066,17 +5066,17 @@
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5091,24 +5091,24 @@
       </c>
       <c r="F146" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
@@ -5162,17 +5162,17 @@
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
@@ -5226,22 +5226,22 @@
     <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
@@ -5251,29 +5251,29 @@
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -5315,24 +5315,24 @@
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5354,17 +5354,17 @@
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5374,29 +5374,29 @@
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
@@ -5450,17 +5450,17 @@
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
@@ -5482,17 +5482,17 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -5514,27 +5514,27 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
@@ -5546,27 +5546,27 @@
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
@@ -5578,17 +5578,17 @@
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -5603,24 +5603,24 @@
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -5635,24 +5635,24 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -5706,17 +5706,17 @@
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr">
@@ -5770,17 +5770,17 @@
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5795,24 +5795,24 @@
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="169" ht="25" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -5834,17 +5834,17 @@
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -5898,12 +5898,12 @@
     <row r="172" ht="25" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
@@ -5930,22 +5930,22 @@
     <row r="173" ht="25" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -5982,29 +5982,29 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6031,12 +6031,12 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6063,12 +6063,12 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -6122,17 +6122,17 @@
     <row r="179" ht="25" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr">
@@ -6154,49 +6154,49 @@
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -6211,29 +6211,29 @@
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
@@ -6243,24 +6243,24 @@
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -6282,17 +6282,17 @@
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -6346,22 +6346,22 @@
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
@@ -6378,22 +6378,22 @@
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6403,24 +6403,24 @@
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
@@ -6506,17 +6506,17 @@
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -6531,39 +6531,39 @@
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6575,17 +6575,17 @@
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
@@ -6595,56 +6595,56 @@
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -6666,54 +6666,54 @@
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Nieuwenhuyzen</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Hilgardt</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6723,34 +6723,34 @@
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
@@ -6762,22 +6762,22 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
@@ -6794,17 +6794,17 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -6814,29 +6814,29 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -6846,29 +6846,29 @@
       </c>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -6878,29 +6878,29 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -6922,17 +6922,17 @@
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -6954,17 +6954,17 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -6979,24 +6979,24 @@
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -7018,17 +7018,17 @@
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
@@ -7050,22 +7050,22 @@
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
@@ -7075,24 +7075,24 @@
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -7114,17 +7114,17 @@
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -7139,24 +7139,24 @@
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -7178,17 +7178,17 @@
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
@@ -7210,49 +7210,49 @@
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7262,29 +7262,29 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -7294,29 +7294,29 @@
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="216" ht="25" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -7331,56 +7331,56 @@
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="217" ht="25" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F217" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F218" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7407,12 +7407,12 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -7434,17 +7434,17 @@
     <row r="220" ht="25" customHeight="1">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7459,24 +7459,24 @@
       </c>
       <c r="F220" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="221" ht="25" customHeight="1">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -7486,29 +7486,29 @@
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="222" ht="25" customHeight="1">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -7530,17 +7530,17 @@
     <row r="223" ht="25" customHeight="1">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F224" s="3" t="inlineStr">
@@ -7594,17 +7594,17 @@
     <row r="225" ht="25" customHeight="1">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -7619,24 +7619,24 @@
       </c>
       <c r="F225" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="226" ht="25" customHeight="1">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="F226" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7663,12 +7663,12 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -7722,27 +7722,27 @@
     <row r="229" ht="25" customHeight="1">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E229" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F229" s="3" t="inlineStr">
@@ -7754,17 +7754,17 @@
     <row r="230" ht="25" customHeight="1">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -7774,34 +7774,34 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F230" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="231" ht="25" customHeight="1">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr">
@@ -7818,44 +7818,108 @@
     <row r="232" ht="25" customHeight="1">
       <c r="A232" s="3" t="inlineStr">
         <is>
+          <t>van der Westhuizen</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>Hennie</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>Helderberg</t>
+        </is>
+      </c>
+      <c r="D232" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F232" s="3" t="inlineStr">
+        <is>
+          <t>410W</t>
+        </is>
+      </c>
+    </row>
+    <row r="233" ht="25" customHeight="1">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F233" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="234" ht="25" customHeight="1">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B232" s="3" t="inlineStr">
+      <c r="B234" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C232" s="3" t="inlineStr">
+      <c r="C234" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D232" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E232" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F232" s="3" t="inlineStr">
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F234" s="3" t="inlineStr">
         <is>
           <t>410E</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 230</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7873,7 +7937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7891,7 +7955,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 18/04/2021 21:32</t>
+          <t>410E Registrees as of 19/04/2021 10:15</t>
         </is>
       </c>
     </row>
@@ -9842,17 +9906,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Ngobozana</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Sphiwe</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -9862,24 +9926,24 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -9896,17 +9960,17 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Paijmans</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Bronwyn Anne</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -9916,24 +9980,24 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Paijmans</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Bronwyn Anne</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -9943,24 +10007,24 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -9982,7 +10046,7 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -9997,24 +10061,24 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -10031,17 +10095,17 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -10051,24 +10115,24 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -10085,17 +10149,17 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -10117,7 +10181,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -10132,24 +10196,24 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -10159,24 +10223,24 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -10186,24 +10250,24 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -10213,7 +10277,7 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10225,12 +10289,12 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -10252,7 +10316,7 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Brett Jason</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -10267,29 +10331,29 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Brett Jason</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -10301,22 +10365,22 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -10328,17 +10392,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -10355,17 +10419,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -10387,7 +10451,7 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -10409,17 +10473,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Townsend</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -10436,22 +10500,22 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -10463,22 +10527,22 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -10495,7 +10559,7 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -10510,7 +10574,7 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10586,7 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -10537,29 +10601,29 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -10571,17 +10635,17 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -10591,24 +10655,24 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -10618,24 +10682,24 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -10645,24 +10709,24 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Van Nieuwenhuyzen</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Hilgardt</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -10672,29 +10736,29 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -10706,17 +10770,17 @@
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -10726,24 +10790,24 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -10753,24 +10817,24 @@
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -10780,29 +10844,29 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -10814,17 +10878,17 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10841,44 +10905,44 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -10888,24 +10952,24 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -10915,24 +10979,24 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -10949,17 +11013,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -10969,7 +11033,7 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10981,12 +11045,12 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -10996,24 +11060,24 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -11023,24 +11087,24 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -11050,7 +11114,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11062,12 +11126,12 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -11089,7 +11153,7 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -11111,44 +11175,44 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -11158,46 +11222,100 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
+          <t>van der Merwe</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Ingrid</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Letaba Tzaneen</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="25" customHeight="1">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="25" customHeight="1">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="B125" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="C125" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 121</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 123</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 60</t>
         </is>
@@ -11233,7 +11351,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 18/04/2021 21:32</t>
+          <t>410W Registrees as of 19/04/2021 10:15</t>
         </is>
       </c>
     </row>
@@ -15274,7 +15392,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 18/04/2021 21:32</t>
+          <t>410E Voting details as of 19/04/2021 10:15</t>
         </is>
       </c>
     </row>
@@ -15611,7 +15729,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 18/04/2021 21:32</t>
+          <t>410W Voting details as of 19/04/2021 10:15</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 19/04/2021 10:15</t>
+          <t>MD410 Registrees as of 20/04/2021 08:45</t>
         </is>
       </c>
     </row>
@@ -6250,17 +6250,17 @@
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strydom</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Melinda Lee</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -6282,17 +6282,17 @@
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -6314,17 +6314,17 @@
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -6378,22 +6378,22 @@
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6410,22 +6410,22 @@
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6435,24 +6435,24 @@
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
@@ -6538,17 +6538,17 @@
     <row r="192" ht="25" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -6563,39 +6563,39 @@
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6607,17 +6607,17 @@
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6627,56 +6627,56 @@
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -6698,22 +6698,22 @@
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Van Nieuwenhuyzen</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Hilgardt</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6730,17 +6730,17 @@
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Nieuwenhuyzen</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Hilgardt</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -6750,39 +6750,39 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
@@ -6794,17 +6794,17 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -6826,22 +6826,22 @@
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6858,54 +6858,54 @@
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6922,96 +6922,96 @@
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7023,22 +7023,22 @@
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
@@ -7050,27 +7050,27 @@
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -7082,22 +7082,22 @@
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -7114,17 +7114,17 @@
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -7139,24 +7139,24 @@
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -7166,29 +7166,29 @@
       </c>
       <c r="E211" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
@@ -7210,17 +7210,17 @@
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -7274,54 +7274,54 @@
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="216" ht="25" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
@@ -7338,59 +7338,59 @@
     <row r="217" ht="25" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F217" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F218" s="3" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="219" ht="25" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -7498,17 +7498,17 @@
     <row r="222" ht="25" customHeight="1">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="F222" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
@@ -7562,17 +7562,17 @@
     <row r="224" ht="25" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F224" s="3" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="E225" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F225" s="3" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -7658,17 +7658,17 @@
     <row r="227" ht="25" customHeight="1">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7695,12 +7695,12 @@
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -7727,12 +7727,12 @@
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -7759,12 +7759,12 @@
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -7786,27 +7786,27 @@
     <row r="231" ht="25" customHeight="1">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F231" s="3" t="inlineStr">
@@ -7818,22 +7818,22 @@
     <row r="232" ht="25" customHeight="1">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7843,24 +7843,24 @@
       </c>
       <c r="F232" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="233" ht="25" customHeight="1">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -7875,51 +7875,83 @@
       </c>
       <c r="F233" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="234" ht="25" customHeight="1">
       <c r="A234" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F234" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="235" ht="25" customHeight="1">
+      <c r="A235" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B234" s="3" t="inlineStr">
+      <c r="B235" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C234" s="3" t="inlineStr">
+      <c r="C235" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D234" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E234" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F234" s="3" t="inlineStr">
+      <c r="D235" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F235" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 232</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 233</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 109</t>
         </is>
@@ -7955,7 +7987,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 19/04/2021 10:15</t>
+          <t>410E Registrees as of 20/04/2021 08:45</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11383,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 19/04/2021 10:15</t>
+          <t>410W Registrees as of 20/04/2021 08:45</t>
         </is>
       </c>
     </row>
@@ -15392,7 +15424,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 19/04/2021 10:15</t>
+          <t>410E Voting details as of 20/04/2021 08:45</t>
         </is>
       </c>
     </row>
@@ -15729,7 +15761,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 19/04/2021 10:15</t>
+          <t>410W Voting details as of 20/04/2021 08:45</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 20/04/2021 08:45</t>
+          <t>MD410 Registrees as of 20/04/2021 11:11</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 20/04/2021 08:45</t>
+          <t>410E Registrees as of 20/04/2021 11:11</t>
         </is>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 20/04/2021 08:45</t>
+          <t>410W Registrees as of 20/04/2021 11:11</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 20/04/2021 08:45</t>
+          <t>410E Voting details as of 20/04/2021 11:11</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 20/04/2021 08:45</t>
+          <t>410W Voting details as of 20/04/2021 11:11</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 20/04/2021 11:11</t>
+          <t>MD410 Registrees as of 20/04/2021 11:25</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="E225" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F225" s="3" t="inlineStr">
@@ -7953,7 +7953,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Number of voters: 109</t>
+          <t>Number of voters: 102</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 20/04/2021 11:11</t>
+          <t>410E Registrees as of 20/04/2021 11:25</t>
         </is>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 20/04/2021 11:11</t>
+          <t>410W Registrees as of 20/04/2021 11:25</t>
         </is>
       </c>
     </row>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15244,7 +15244,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Number of voters: 67</t>
+          <t>Number of voters: 54</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 20/04/2021 11:11</t>
+          <t>410E Voting details as of 20/04/2021 11:25</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 20/04/2021 11:11</t>
+          <t>410W Voting details as of 20/04/2021 11:25</t>
         </is>
       </c>
     </row>
@@ -15834,7 +15834,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -15930,7 +15930,7 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -15940,7 +15940,7 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
@@ -15950,37 +15950,37 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
@@ -15990,7 +15990,7 @@
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -16000,17 +16000,17 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Rehoboth</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Rehoboth</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -16020,37 +16020,37 @@
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
@@ -16060,7 +16060,7 @@
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -16070,11 +16070,11 @@
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -16104,7 +16104,7 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" ht="25" customHeight="1">
@@ -16114,7 +16114,7 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -16127,7 +16127,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Number of voters: 70</t>
+          <t>Number of voters: 55</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 20/04/2021 11:25</t>
+          <t>MD410 Registrees as of 20/04/2021 15:16</t>
         </is>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7987,7 +7987,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 20/04/2021 11:25</t>
+          <t>410E Registrees as of 20/04/2021 15:16</t>
         </is>
       </c>
     </row>
@@ -10910,54 +10910,54 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -10991,17 +10991,17 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -11011,24 +11011,24 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -11045,17 +11045,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11104,12 +11104,12 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -11126,17 +11126,17 @@
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11158,12 +11158,12 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -11185,12 +11185,12 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -11212,12 +11212,12 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -11234,49 +11234,49 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>von der Decken</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
@@ -11288,17 +11288,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>‘t Hart</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -11308,48 +11308,21 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="125" ht="25" customHeight="1">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>‘t Hart</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>Benoni Lakes</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 122</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Number of attendees: 123</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>Number of voters: 60</t>
+          <t>Number of voters: 59</t>
         </is>
       </c>
     </row>
@@ -11365,7 +11338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11383,7 +11356,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 20/04/2021 11:25</t>
+          <t>410W Registrees as of 20/04/2021 15:16</t>
         </is>
       </c>
     </row>
@@ -12335,17 +12308,17 @@
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Fouché</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Jéan</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -12355,19 +12328,19 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Michele</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -12382,7 +12355,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12394,7 +12367,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Pat</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -12409,24 +12382,24 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Pat</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -12443,17 +12416,17 @@
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -12463,110 +12436,110 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Grobler</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Matty</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Henties Bay</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Groenewoud</t>
+          <t>Grobler</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Christiana</t>
+          <t>Matty</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Henties Bay</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Groenewoud</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>Christiana</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -12578,22 +12551,22 @@
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -12605,22 +12578,22 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -12632,17 +12605,17 @@
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -12652,51 +12625,51 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Hess</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Dorothy</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -12713,22 +12686,22 @@
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Hoffmann</t>
+          <t>Hess</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Ellen G W</t>
+          <t>Dorothy</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -12740,17 +12713,17 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hoffmann</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Ellen G W</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -12760,7 +12733,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12772,7 +12745,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -12787,34 +12760,34 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12826,39 +12799,39 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -12868,51 +12841,51 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -12922,83 +12895,83 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Kahn</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -13010,49 +12983,49 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Kemp</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Kemp</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -13064,17 +13037,17 @@
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -13091,22 +13064,22 @@
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -13118,17 +13091,17 @@
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Koenze</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Alton</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -13145,17 +13118,17 @@
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koenze</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Alton</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -13172,44 +13145,44 @@
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -13226,17 +13199,17 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -13258,7 +13231,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -13273,29 +13246,29 @@
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Langmaak</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Elke</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -13312,7 +13285,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>Elke</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -13334,22 +13307,22 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langmaak</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -13361,17 +13334,17 @@
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -13381,24 +13354,24 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -13408,24 +13381,24 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -13447,7 +13420,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -13469,17 +13442,17 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -13496,49 +13469,49 @@
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -13550,17 +13523,17 @@
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Elisa</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -13570,24 +13543,24 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Elisa</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -13604,22 +13577,22 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
@@ -13631,22 +13604,22 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -13658,17 +13631,17 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Mosesd</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -13678,29 +13651,29 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Mosesd</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -13712,22 +13685,22 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Mutschler</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Grootfontein</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -13739,17 +13712,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Mutschler</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Grootfontein</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -13759,14 +13732,14 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -13776,7 +13749,7 @@
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -13786,7 +13759,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13798,12 +13771,12 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -13820,17 +13793,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -13847,17 +13820,17 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Nortjie</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -13867,24 +13840,24 @@
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Ocker</t>
+          <t>Nortjie</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -13906,7 +13879,7 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -13928,17 +13901,17 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Ocker</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Debra</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -13955,22 +13928,22 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Ormandy</t>
+          <t>Olivier</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Isabella Stratton</t>
+          <t>Debra</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -13982,44 +13955,44 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Ormandy</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Isabella Stratton</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -14036,44 +14009,44 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Poyowe</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Yvonne  Maureen</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Poyowe</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Yvonne  Maureen</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -14090,22 +14063,22 @@
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -14117,17 +14090,17 @@
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -14137,24 +14110,24 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -14164,24 +14137,24 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -14191,24 +14164,24 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -14225,71 +14198,71 @@
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -14306,17 +14279,17 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -14326,7 +14299,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14338,7 +14311,7 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -14353,19 +14326,19 @@
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -14380,24 +14353,24 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -14414,17 +14387,17 @@
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -14446,7 +14419,7 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -14461,24 +14434,24 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -14488,24 +14461,24 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -14515,7 +14488,7 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14527,12 +14500,12 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -14542,7 +14515,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -14554,7 +14527,7 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -14576,17 +14549,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -14596,56 +14569,56 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -14657,17 +14630,17 @@
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -14684,17 +14657,17 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -14704,24 +14677,24 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -14738,44 +14711,44 @@
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -14792,22 +14765,22 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -14819,22 +14792,22 @@
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -14846,22 +14819,22 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Vorster</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -14873,22 +14846,22 @@
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Vorster</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -14905,71 +14878,71 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
@@ -14981,22 +14954,22 @@
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Woodman</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Joan</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
@@ -15008,44 +14981,44 @@
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Woodman</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Joan</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -15055,7 +15028,7 @@
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -15067,17 +15040,17 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Gerry</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -15089,22 +15062,22 @@
     <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Zucker</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Leonie</t>
+          <t>Gerry</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -15116,17 +15089,17 @@
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Zucker</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Leonie</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -15136,7 +15109,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15148,7 +15121,7 @@
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -15170,22 +15143,22 @@
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -15197,44 +15170,44 @@
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -15256,7 +15229,7 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -15278,17 +15251,17 @@
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -15310,7 +15283,7 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -15337,7 +15310,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -15359,41 +15332,68 @@
     <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
+          <t>van Wulven</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>Deon</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Tygerberg Hills</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="25" customHeight="1">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
           <t>van der Westhuizen</t>
         </is>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B150" s="3" t="inlineStr">
         <is>
           <t>Hennie</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
+      <c r="C150" s="3" t="inlineStr">
         <is>
           <t>Helderberg</t>
         </is>
       </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E149" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 147</t>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Number of voters: 54</t>
+          <t>Number of attendees: 148</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Number of voters: 55</t>
         </is>
       </c>
     </row>
@@ -15409,7 +15409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15424,7 +15424,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 20/04/2021 11:25</t>
+          <t>410E Voting details as of 20/04/2021 15:16</t>
         </is>
       </c>
     </row>
@@ -15583,17 +15583,17 @@
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -15603,7 +15603,7 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
@@ -15613,47 +15613,47 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -15663,7 +15663,7 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -15673,17 +15673,17 @@
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
@@ -15693,44 +15693,34 @@
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="25" customHeight="1">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Wilro Park</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Number of clubs: 27</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Number of clubs: 28</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Number of voters: 61</t>
+          <t>Number of voters: 60</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15751,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 20/04/2021 11:25</t>
+          <t>410W Voting details as of 20/04/2021 15:16</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 20/04/2021 15:16</t>
+          <t>MD410 Registrees as of 20/04/2021 19:04</t>
         </is>
       </c>
     </row>
@@ -488,24 +488,16 @@
       </c>
     </row>
     <row r="3" ht="25" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>ANDREWS</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Neale Stewart</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -522,17 +514,17 @@
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Abrahams</t>
+          <t>ANDREWS</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Neale Stewart</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -547,24 +539,24 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Abramsohn</t>
+          <t>Abrahams</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -574,7 +566,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -591,12 +583,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Janine</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -606,7 +598,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -618,17 +610,17 @@
     <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Abramsohn</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Rashid</t>
+          <t>Janine</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -638,7 +630,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -650,17 +642,17 @@
     <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Rashid</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -670,7 +662,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -682,17 +674,17 @@
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>BRAGA BORGES</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -714,27 +706,27 @@
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Benade</t>
+          <t>BRAGA BORGES</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cathleen</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Rehoboth</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -746,17 +738,17 @@
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Beukes-Williams</t>
+          <t>Benade</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cathleen</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Rehoboth</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -766,7 +758,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -778,22 +770,22 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Blakeman</t>
+          <t>Beukes-Williams</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Belinda</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -803,24 +795,24 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Boswell</t>
+          <t>Blakeman</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Mel</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -842,17 +834,17 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Botha</t>
+          <t>Boswell</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Lyn(ette)</t>
+          <t>Mel</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -862,7 +854,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -874,17 +866,17 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Brooker</t>
+          <t>Botha</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Byron</t>
+          <t>Lyn(ette)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -906,17 +898,17 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Byars</t>
+          <t>Brooker</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Byron</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Manzini</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -926,7 +918,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -938,54 +930,54 @@
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Cadman</t>
+          <t>Byars</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Manzini</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Calomiris</t>
+          <t>Cadman</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1002,27 +994,27 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Cannone</t>
+          <t>Calomiris</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Linda Ann</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1034,27 +1026,27 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Carstens</t>
+          <t>Cannone</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Petrus</t>
+          <t>Linda Ann</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1066,27 +1058,27 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Castle</t>
+          <t>Carstens</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Lizelle</t>
+          <t>Petrus</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1098,22 +1090,22 @@
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Castle</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lizelle</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1130,17 +1122,17 @@
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Chazen</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Lionel</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1155,24 +1147,24 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Chetty</t>
+          <t>Chazen</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Lionel</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>East Coast</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1194,22 +1186,22 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Chinyai</t>
+          <t>Chetty</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Tanyaradzwa</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1219,34 +1211,34 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Cloete</t>
+          <t>Chinyai</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Delaney Yeltsin</t>
+          <t>Tanyaradzwa</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -1258,49 +1250,49 @@
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Coppen</t>
+          <t>Cloete</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Delaney Yeltsin</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Cornelius</t>
+          <t>Coppen</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Esme</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1315,34 +1307,34 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Cottle</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Esme</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1354,22 +1346,22 @@
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>DE VILLIERS</t>
+          <t>Cottle</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1386,27 +1378,27 @@
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>DE VILLIERS</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Norma</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1433,7 +1425,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1450,22 +1442,22 @@
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>De Wet</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Norma</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1475,24 +1467,24 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Diener</t>
+          <t>De Wet</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Benita</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1502,29 +1494,29 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Dodd</t>
+          <t>Diener</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Freda</t>
+          <t>Benita</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1534,7 +1526,7 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
@@ -1546,17 +1538,17 @@
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>Dodd</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Peggy</t>
+          <t>Freda</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1566,12 +1558,12 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1575,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1610,17 +1602,17 @@
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Glynn</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1647,7 +1639,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Glynn</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1674,27 +1666,27 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Els</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -1706,22 +1698,22 @@
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1731,7 +1723,7 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -1743,12 +1735,12 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1770,17 +1762,17 @@
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1790,29 +1782,29 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1827,24 +1819,24 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1854,7 +1846,7 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -1871,7 +1863,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1886,7 +1878,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -1898,17 +1890,17 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Fouché</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Jéan</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1930,17 +1922,17 @@
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Fouché</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Jéan</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1955,24 +1947,24 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1987,24 +1979,24 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -2019,7 +2011,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2023,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2063,7 +2055,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2090,17 +2082,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2122,17 +2114,17 @@
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -2142,29 +2134,29 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2174,12 +2166,12 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2183,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2206,7 +2198,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2218,17 +2210,17 @@
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -2238,7 +2230,7 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -2255,7 +2247,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2270,7 +2262,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
@@ -2282,17 +2274,17 @@
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -2302,39 +2294,39 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
@@ -2346,17 +2338,17 @@
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2366,66 +2358,66 @@
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2442,22 +2434,22 @@
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -2467,24 +2459,24 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2506,17 +2498,17 @@
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2531,24 +2523,24 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2558,29 +2550,29 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2595,34 +2587,34 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
@@ -2634,22 +2626,22 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2659,24 +2651,24 @@
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2698,17 +2690,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2718,7 +2710,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -2735,7 +2727,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2762,17 +2754,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -2799,7 +2791,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2814,7 +2806,7 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -2826,17 +2818,17 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2846,12 +2838,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2855,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2878,7 +2870,7 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
@@ -2890,22 +2882,22 @@
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Huysamen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -2922,49 +2914,49 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Huysamen</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2986,22 +2978,22 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -3011,7 +3003,7 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -3023,22 +3015,22 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -3050,17 +3042,17 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -3070,7 +3062,7 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
@@ -3082,27 +3074,27 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3114,17 +3106,17 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -3134,7 +3126,7 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -3146,27 +3138,27 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Kahn</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -3178,27 +3170,27 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -3210,22 +3202,22 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3242,17 +3234,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3262,7 +3254,7 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
@@ -3274,17 +3266,17 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3306,22 +3298,22 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3338,17 +3330,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Khoza</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Faniso</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3363,29 +3355,29 @@
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Khoza</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Faniso</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -3402,17 +3394,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3434,17 +3426,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3454,7 +3446,7 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
@@ -3471,7 +3463,7 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3498,17 +3490,17 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3518,7 +3510,7 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
@@ -3530,22 +3522,22 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -3555,34 +3547,34 @@
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
@@ -3594,17 +3586,17 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -3614,29 +3606,29 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -3646,29 +3638,29 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3695,7 +3687,7 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -3710,7 +3702,7 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
@@ -3722,22 +3714,22 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -3747,29 +3739,29 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3779,24 +3771,24 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3806,29 +3798,29 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3843,24 +3835,24 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -3870,34 +3862,34 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3907,29 +3899,29 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -3939,24 +3931,24 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3971,24 +3963,24 @@
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -4003,29 +3995,29 @@
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4042,22 +4034,22 @@
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
@@ -4067,7 +4059,7 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4071,7 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4106,17 +4098,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4126,29 +4118,29 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4158,39 +4150,39 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
@@ -4202,22 +4194,22 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -4227,19 +4219,19 @@
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -4254,7 +4246,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
@@ -4266,17 +4258,17 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4286,7 +4278,7 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
@@ -4298,17 +4290,17 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4323,24 +4315,24 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4350,29 +4342,29 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4382,7 +4374,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
@@ -4394,17 +4386,17 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4431,7 +4423,7 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -4446,7 +4438,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4458,17 +4450,17 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -4478,7 +4470,7 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -4490,17 +4482,17 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -4510,7 +4502,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -4527,7 +4519,7 @@
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -4542,7 +4534,7 @@
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -4554,17 +4546,17 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -4574,34 +4566,34 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -4618,22 +4610,22 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4650,27 +4642,27 @@
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
@@ -4682,22 +4674,22 @@
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
@@ -4707,7 +4699,7 @@
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4711,7 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -4746,17 +4738,17 @@
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -4766,34 +4758,34 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
@@ -4803,39 +4795,39 @@
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4847,12 +4839,12 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4874,17 +4866,17 @@
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4899,24 +4891,24 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Ngobozana</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Sphiwe</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4926,7 +4918,7 @@
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
@@ -4938,17 +4930,17 @@
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Ngobozana</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Sphiwe</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4958,29 +4950,29 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4995,24 +4987,24 @@
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5034,17 +5026,17 @@
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Paijmans</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Bronwyn Anne</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5054,7 +5046,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
@@ -5066,17 +5058,17 @@
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Paijmans</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Bronwyn Anne</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5086,7 +5078,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
@@ -5098,17 +5090,17 @@
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5123,24 +5115,24 @@
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5150,7 +5142,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
@@ -5167,12 +5159,12 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5182,7 +5174,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
@@ -5194,17 +5186,17 @@
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5219,7 +5211,7 @@
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5223,7 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -5246,7 +5238,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -5258,22 +5250,22 @@
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
@@ -5283,29 +5275,29 @@
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
@@ -5327,7 +5319,7 @@
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -5347,24 +5339,24 @@
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -5374,7 +5366,7 @@
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
@@ -5386,17 +5378,17 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -5406,29 +5398,29 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5438,7 +5430,7 @@
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
@@ -5450,17 +5442,17 @@
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5470,7 +5462,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
@@ -5482,17 +5474,17 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -5502,7 +5494,7 @@
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
@@ -5514,17 +5506,17 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5546,27 +5538,27 @@
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
@@ -5578,27 +5570,27 @@
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
@@ -5610,17 +5602,17 @@
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -5635,24 +5627,24 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5667,24 +5659,24 @@
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5694,7 +5686,7 @@
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
@@ -5711,7 +5703,7 @@
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -5726,7 +5718,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
@@ -5738,17 +5730,17 @@
     <row r="167" ht="25" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -5763,7 +5755,7 @@
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5767,7 @@
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -5790,7 +5782,7 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr">
@@ -5802,17 +5794,17 @@
     <row r="169" ht="25" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -5827,24 +5819,24 @@
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5866,17 +5858,17 @@
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -5903,7 +5895,7 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5918,7 +5910,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
@@ -5930,12 +5922,12 @@
     <row r="173" ht="25" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -5945,12 +5937,12 @@
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
@@ -5962,32 +5954,32 @@
     <row r="174" ht="25" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5991,12 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6014,29 +6006,29 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="176" ht="25" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6051,7 +6043,7 @@
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6063,12 +6055,12 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6078,12 +6070,12 @@
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6095,12 +6087,12 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6110,7 +6102,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
@@ -6127,7 +6119,7 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -6154,17 +6146,17 @@
     <row r="180" ht="25" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -6174,7 +6166,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F180" s="3" t="inlineStr">
@@ -6186,49 +6178,49 @@
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6243,29 +6235,29 @@
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Strydom</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Melinda Lee</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
@@ -6275,24 +6267,24 @@
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strydom</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Melinda Lee</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -6314,17 +6306,17 @@
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -6346,17 +6338,17 @@
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -6383,7 +6375,7 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -6410,22 +6402,22 @@
     <row r="188" ht="25" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6442,22 +6434,22 @@
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
@@ -6467,24 +6459,24 @@
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -6499,7 +6491,7 @@
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6503,7 @@
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -6526,7 +6518,7 @@
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
@@ -6543,7 +6535,7 @@
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -6558,7 +6550,7 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
@@ -6570,17 +6562,17 @@
     <row r="193" ht="25" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -6595,39 +6587,39 @@
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6639,17 +6631,17 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6659,56 +6651,56 @@
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="196" ht="25" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -6730,22 +6722,22 @@
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Van Nieuwenhuyzen</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Hilgardt</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6762,17 +6754,17 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Nieuwenhuyzen</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Hilgardt</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -6782,39 +6774,39 @@
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
@@ -6826,17 +6818,17 @@
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -6858,22 +6850,22 @@
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -6890,54 +6882,54 @@
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F203" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
@@ -6954,96 +6946,96 @@
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7055,22 +7047,22 @@
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -7082,27 +7074,27 @@
     <row r="209" ht="25" customHeight="1">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -7114,22 +7106,22 @@
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
@@ -7146,17 +7138,17 @@
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -7171,24 +7163,24 @@
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -7198,29 +7190,29 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -7230,7 +7222,7 @@
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
@@ -7242,17 +7234,17 @@
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7262,7 +7254,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
@@ -7279,7 +7271,7 @@
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -7306,54 +7298,54 @@
     <row r="216" ht="25" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F216" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="217" ht="25" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
@@ -7370,59 +7362,59 @@
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F218" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="219" ht="25" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -7434,17 +7426,17 @@
     <row r="220" ht="25" customHeight="1">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -7459,7 +7451,7 @@
       </c>
       <c r="F220" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7463,7 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -7486,7 +7478,7 @@
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
@@ -7503,12 +7495,12 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -7530,17 +7522,17 @@
     <row r="223" ht="25" customHeight="1">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7550,12 +7542,12 @@
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7559,7 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -7594,17 +7586,17 @@
     <row r="225" ht="25" customHeight="1">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -7631,7 +7623,7 @@
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -7663,7 +7655,7 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
@@ -7690,17 +7682,17 @@
     <row r="228" ht="25" customHeight="1">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -7715,7 +7707,7 @@
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7727,12 +7719,12 @@
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -7759,12 +7751,12 @@
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -7791,12 +7783,12 @@
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -7818,27 +7810,27 @@
     <row r="232" ht="25" customHeight="1">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F232" s="3" t="inlineStr">
@@ -7850,22 +7842,22 @@
     <row r="233" ht="25" customHeight="1">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E233" s="3" t="inlineStr">
@@ -7875,24 +7867,24 @@
       </c>
       <c r="F233" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="234" ht="25" customHeight="1">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
@@ -7907,51 +7899,83 @@
       </c>
       <c r="F234" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="235" ht="25" customHeight="1">
       <c r="A235" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D235" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F235" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236" ht="25" customHeight="1">
+      <c r="A236" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B235" s="3" t="inlineStr">
+      <c r="B236" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C235" s="3" t="inlineStr">
+      <c r="C236" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D235" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E235" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F235" s="3" t="inlineStr">
+      <c r="D236" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F236" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 233</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 234</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 102</t>
         </is>
@@ -7987,7 +8011,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 20/04/2021 15:16</t>
+          <t>410E Registrees as of 20/04/2021 19:04</t>
         </is>
       </c>
     </row>
@@ -11356,7 +11380,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 20/04/2021 15:16</t>
+          <t>410W Registrees as of 20/04/2021 19:04</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15448,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 20/04/2021 15:16</t>
+          <t>410E Voting details as of 20/04/2021 19:04</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15775,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 20/04/2021 15:16</t>
+          <t>410W Voting details as of 20/04/2021 19:04</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 20/04/2021 19:04</t>
+          <t>MD410 Registrees as of 20/04/2021 20:45</t>
         </is>
       </c>
     </row>
@@ -7993,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8011,7 +8011,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 20/04/2021 19:04</t>
+          <t>410E Registrees as of 20/04/2021 20:45</t>
         </is>
       </c>
     </row>
@@ -8072,17 +8072,17 @@
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Boswell</t>
+          <t>Blakeman</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mel</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -8099,17 +8099,17 @@
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Botha</t>
+          <t>Blakeman</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Lyn(ette)</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -8119,24 +8119,24 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Brauteseth</t>
+          <t>Boswell</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mel</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -8146,24 +8146,24 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Brooker</t>
+          <t>Botha</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Byron</t>
+          <t>Lyn(ette)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -8180,17 +8180,17 @@
     <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Bull</t>
+          <t>Brauteseth</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -8200,24 +8200,24 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Byars</t>
+          <t>Brooker</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Byron</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Manzini</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -8227,24 +8227,24 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Chazen</t>
+          <t>Bull</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Lionel</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -8261,17 +8261,17 @@
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Chetty</t>
+          <t>Byars</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>East Coast</t>
+          <t>Manzini</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -8288,22 +8288,22 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Coppen</t>
+          <t>Chazen</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Lionel</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -8315,22 +8315,22 @@
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Davids</t>
+          <t>Chetty</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Melanie</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -8342,22 +8342,22 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>De Wet</t>
+          <t>Coppen</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -8369,44 +8369,44 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>Davids</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Peggy</t>
+          <t>Melanie</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>De Wet</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -8416,24 +8416,24 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Glynn</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -8450,17 +8450,17 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -8477,44 +8477,44 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Els</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Glynn</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -8531,44 +8531,44 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -8585,17 +8585,17 @@
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -8639,17 +8639,17 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -8666,17 +8666,17 @@
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -8693,17 +8693,17 @@
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -8713,24 +8713,24 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -8747,17 +8747,17 @@
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -8774,22 +8774,22 @@
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -8801,17 +8801,17 @@
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -8828,17 +8828,17 @@
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>HERMANUS</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MBULELO</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -8855,17 +8855,17 @@
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -8882,22 +8882,22 @@
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>HERMANUS</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>MBULELO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -8909,17 +8909,17 @@
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -8936,17 +8936,17 @@
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -8956,24 +8956,24 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -8983,24 +8983,24 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -9010,24 +9010,24 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -9044,17 +9044,17 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -9064,24 +9064,24 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -9098,17 +9098,17 @@
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -9118,24 +9118,24 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -9145,24 +9145,24 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -9172,24 +9172,24 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -9199,24 +9199,24 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -9226,24 +9226,24 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -9253,56 +9253,56 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Niqula</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -9314,22 +9314,22 @@
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -9341,12 +9341,12 @@
     <row r="51" ht="25" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Labuschagne</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Niqula</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -9368,12 +9368,12 @@
     <row r="52" ht="25" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -9395,17 +9395,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Labuschagne</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -9415,29 +9415,29 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -9449,17 +9449,17 @@
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -9469,24 +9469,24 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="56" ht="25" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -9496,24 +9496,24 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -9523,24 +9523,24 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="58" ht="25" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -9550,24 +9550,24 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Masson</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -9577,24 +9577,24 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -9604,24 +9604,24 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>McKerrow</t>
+          <t>Masson</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Alec</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -9638,17 +9638,17 @@
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -9658,24 +9658,24 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Meltzer</t>
+          <t>McKerrow</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Alec</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -9685,24 +9685,24 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -9712,24 +9712,24 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meltzer</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -9746,17 +9746,17 @@
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -9766,24 +9766,24 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -9800,17 +9800,17 @@
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -9827,17 +9827,17 @@
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -9854,17 +9854,17 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -9874,24 +9874,24 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -9908,17 +9908,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Theo</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -9935,17 +9935,17 @@
     <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -9962,17 +9962,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Ngobozana</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Sphiwe</t>
+          <t>Theo</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -9982,24 +9982,24 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -10016,17 +10016,17 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Ngobozana</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>Sphiwe</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -10036,24 +10036,24 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Paijmans</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Bronwyn Anne</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -10063,24 +10063,24 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -10097,17 +10097,17 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Paijmans</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Bronwyn Anne</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -10117,24 +10117,24 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -10144,24 +10144,24 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -10171,24 +10171,24 @@
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -10198,24 +10198,24 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -10225,24 +10225,24 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -10259,17 +10259,17 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -10279,24 +10279,24 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -10313,17 +10313,17 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -10340,17 +10340,17 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -10367,17 +10367,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10399,12 +10399,12 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Brett Jason</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -10414,51 +10414,51 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Brett Jason</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -10475,22 +10475,22 @@
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -10502,12 +10502,12 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -10529,17 +10529,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -10556,17 +10556,17 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Townsend</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -10583,22 +10583,22 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -10610,17 +10610,17 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -10637,27 +10637,27 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -10691,71 +10691,71 @@
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -10772,44 +10772,44 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Van Nieuwenhuyzen</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Hilgardt</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -10819,24 +10819,24 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Van Nieuwenhuyzen</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Hilgardt</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -10846,29 +10846,29 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -10880,17 +10880,17 @@
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -10900,24 +10900,24 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10927,29 +10927,29 @@
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -10961,17 +10961,17 @@
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -10981,51 +10981,51 @@
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -11035,24 +11035,24 @@
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -11062,24 +11062,24 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -11096,17 +11096,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11128,12 +11128,12 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -11143,24 +11143,24 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -11170,24 +11170,24 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11209,12 +11209,12 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -11258,44 +11258,44 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -11305,46 +11305,100 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
+          <t>van der Merwe</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>Ingrid</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Letaba Tzaneen</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="25" customHeight="1">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="25" customHeight="1">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="B126" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C124" s="3" t="inlineStr">
+      <c r="C126" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 122</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 124</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 59</t>
         </is>
@@ -11380,7 +11434,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 20/04/2021 19:04</t>
+          <t>410W Registrees as of 20/04/2021 20:45</t>
         </is>
       </c>
     </row>
@@ -15448,7 +15502,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 20/04/2021 19:04</t>
+          <t>410E Voting details as of 20/04/2021 20:45</t>
         </is>
       </c>
     </row>
@@ -15775,7 +15829,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 20/04/2021 19:04</t>
+          <t>410W Voting details as of 20/04/2021 20:45</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 20/04/2021 20:45</t>
+          <t>MD410 Registrees as of 21/04/2021 09:02</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -5378,27 +5378,27 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Rashirai</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Tabeth</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5410,17 +5410,17 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5430,29 +5430,29 @@
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
@@ -5474,17 +5474,17 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
@@ -5506,17 +5506,17 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
@@ -5538,17 +5538,17 @@
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5570,27 +5570,27 @@
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
@@ -5602,27 +5602,27 @@
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
@@ -5634,17 +5634,17 @@
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5659,24 +5659,24 @@
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5691,24 +5691,24 @@
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr">
@@ -5762,17 +5762,17 @@
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
@@ -5826,17 +5826,17 @@
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5851,24 +5851,24 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -5890,17 +5890,17 @@
     <row r="172" ht="25" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
@@ -5954,12 +5954,12 @@
     <row r="174" ht="25" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
@@ -5986,32 +5986,32 @@
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6038,29 +6038,29 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="177" ht="25" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6087,12 +6087,12 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Bennie</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -6102,12 +6102,12 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Carmen Dolores</t>
+          <t>Bennie</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>David John</t>
+          <t>Carmen Dolores</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -6178,17 +6178,17 @@
     <row r="181" ht="25" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Sochen</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>David John</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr">
@@ -6210,49 +6210,49 @@
     <row r="182" ht="25" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Sochen</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="183" ht="25" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Strauss</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -6267,29 +6267,29 @@
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="184" ht="25" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Strydom</t>
+          <t>Strauss</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Melinda Lee</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
@@ -6299,24 +6299,24 @@
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="185" ht="25" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Strydom</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Melinda Lee</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -6338,17 +6338,17 @@
     <row r="186" ht="25" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -6370,17 +6370,17 @@
     <row r="187" ht="25" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -6434,22 +6434,22 @@
     <row r="189" ht="25" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
@@ -6466,22 +6466,22 @@
     <row r="190" ht="25" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Tshikala</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>David Alex</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
@@ -6491,24 +6491,24 @@
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="191" ht="25" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Tshikala</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>David Alex</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
@@ -6594,17 +6594,17 @@
     <row r="194" ht="25" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>VAN BREDA</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>HILARY LISE</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -6619,39 +6619,39 @@
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="195" ht="25" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>VAN BREDA</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>HILARY LISE</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6663,17 +6663,17 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>MARINA</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6683,56 +6683,56 @@
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="197" ht="25" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Valadao</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>MARINA</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="198" ht="25" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>Valadao</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -6754,22 +6754,22 @@
     <row r="199" ht="25" customHeight="1">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Van Nieuwenhuyzen</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Hilgardt</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
@@ -6786,17 +6786,17 @@
     <row r="200" ht="25" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Van Rensburg</t>
+          <t>Van Nieuwenhuyzen</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Hilgardt</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -6806,39 +6806,39 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="201" ht="25" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Van Romburgh</t>
+          <t>Van Rensburg</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Lorna</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
@@ -6850,17 +6850,17 @@
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Van Wyk-Nelson</t>
+          <t>Van Romburgh</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Lorna</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -6882,22 +6882,22 @@
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Van de Merwe</t>
+          <t>Van Wyk-Nelson</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6914,59 +6914,59 @@
     <row r="204" ht="25" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van de Merwe</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="205" ht="25" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
@@ -6978,96 +6978,96 @@
     <row r="206" ht="25" customHeight="1">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Von Mollendorf</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Rinette</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Von Mollendorf</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Rinette</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="208" ht="25" customHeight="1">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Allan</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7079,22 +7079,22 @@
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Allan</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -7106,27 +7106,27 @@
     <row r="210" ht="25" customHeight="1">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
@@ -7138,22 +7138,22 @@
     <row r="211" ht="25" customHeight="1">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Wills</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Geila</t>
+          <t>Johanna</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
@@ -7170,17 +7170,17 @@
     <row r="212" ht="25" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Wills</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Geila</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -7195,24 +7195,24 @@
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="213" ht="25" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -7222,29 +7222,29 @@
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F213" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="214" ht="25" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Wright</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F214" s="3" t="inlineStr">
@@ -7266,17 +7266,17 @@
     <row r="215" ht="25" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>de Kock</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Engela</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Engela</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -7330,54 +7330,54 @@
     <row r="217" ht="25" customHeight="1">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>de Kock</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Francois</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F217" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="218" ht="25" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
@@ -7394,22 +7394,22 @@
     <row r="219" ht="25" customHeight="1">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>stier</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>RORY</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr">
@@ -7419,34 +7419,34 @@
       </c>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="220" ht="25" customHeight="1">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>van Blerk</t>
+          <t>stier</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>RORY</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
@@ -7458,17 +7458,17 @@
     <row r="221" ht="25" customHeight="1">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>van Blerk</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="F221" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F222" s="3" t="inlineStr">
@@ -7527,12 +7527,12 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -7554,17 +7554,17 @@
     <row r="224" ht="25" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>van Rensburg</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -7574,12 +7574,12 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F224" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="226" ht="25" customHeight="1">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>van Wulven</t>
+          <t>van Rensburg</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>Jeannie</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Jeannie</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>Deon</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -7714,17 +7714,17 @@
     <row r="229" ht="25" customHeight="1">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Wulven</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Deon</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="F229" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -7751,12 +7751,12 @@
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -7783,12 +7783,12 @@
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
@@ -7842,27 +7842,27 @@
     <row r="233" ht="25" customHeight="1">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E233" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F233" s="3" t="inlineStr">
@@ -7874,49 +7874,49 @@
     <row r="234" ht="25" customHeight="1">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>van der Westhuizen</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F234" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="235" ht="25" customHeight="1">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Westhuizen</t>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
@@ -7931,51 +7931,83 @@
       </c>
       <c r="F235" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="236" ht="25" customHeight="1">
       <c r="A236" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D236" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F236" s="3" t="inlineStr">
+        <is>
+          <t>410E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237" ht="25" customHeight="1">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B236" s="3" t="inlineStr">
+      <c r="B237" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C236" s="3" t="inlineStr">
+      <c r="C237" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D236" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E236" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F236" s="3" t="inlineStr">
+      <c r="D237" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F237" s="3" t="inlineStr">
         <is>
           <t>410E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 234</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 235</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 102</t>
         </is>
@@ -7993,7 +8025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8011,7 +8043,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 20/04/2021 20:45</t>
+          <t>410E Registrees as of 21/04/2021 09:02</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8340,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10232,44 +10264,44 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Rashirai</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Tabeth</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -10286,17 +10318,17 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -10318,7 +10350,7 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -10333,24 +10365,24 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Smit</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -10360,24 +10392,24 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Jeff</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -10387,24 +10419,24 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Stander</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -10414,7 +10446,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10426,12 +10458,12 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -10453,7 +10485,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Brett Jason</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -10468,29 +10500,29 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Steyn</t>
+          <t>Stander</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Elna</t>
+          <t>Brett Jason</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -10502,22 +10534,22 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Sturges</t>
+          <t>Steyn</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Elna</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
@@ -10529,17 +10561,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Talbot</t>
+          <t>Sturges</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Lauryn</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -10556,17 +10588,17 @@
     <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Theron</t>
+          <t>Talbot</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Pierre</t>
+          <t>Lauryn</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -10588,7 +10620,7 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Moira</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -10610,17 +10642,17 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Townsend</t>
+          <t>Theron</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Moira</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -10637,22 +10669,22 @@
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Toye</t>
+          <t>Townsend</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Omolayo</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -10664,22 +10696,22 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Tuckett</t>
+          <t>Toye</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Alistair</t>
+          <t>Omolayo</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -10696,7 +10728,7 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Rowan</t>
+          <t>Alistair</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -10711,7 +10743,7 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10723,7 +10755,7 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -10738,29 +10770,29 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Uchytil</t>
+          <t>Tuckett</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Jiri</t>
+          <t>Gail</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -10772,17 +10804,17 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>VAN DER MERWE</t>
+          <t>Uchytil</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>Jiri</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>East London Port Rex</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -10792,24 +10824,24 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Van Niekerk</t>
+          <t>VAN DER MERWE</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Riaan</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>East London Port Rex</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -10819,29 +10851,29 @@
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Van Nieuwenhuyzen</t>
+          <t>Van Niekerk</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Hilgardt</t>
+          <t>Riaan</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -10853,71 +10885,71 @@
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Venter</t>
+          <t>Van Nieuwenhuyzen</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Hilgardt</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Volker</t>
+          <t>Venter</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Warman</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Alastair</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -10934,17 +10966,17 @@
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Warman</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Neville</t>
+          <t>Alastair</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -10954,24 +10986,24 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Wilter-Sturges</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Meredith</t>
+          <t>Neville</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -10988,22 +11020,22 @@
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>de Silva</t>
+          <t>Wilter-Sturges</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Meredith</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -11015,27 +11047,27 @@
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>du Plooy</t>
+          <t>de Silva</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11047,7 +11079,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -11069,17 +11101,17 @@
     <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>du Toit</t>
+          <t>du Plooy</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -11089,24 +11121,24 @@
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>le Roux</t>
+          <t>du Toit</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Desiree</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Gonubie</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -11116,24 +11148,24 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>van Heerden</t>
+          <t>le Roux</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Jeanette</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Gonubie</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -11155,7 +11187,7 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -11170,7 +11202,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11182,12 +11214,12 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -11204,17 +11236,17 @@
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>van Wyk</t>
+          <t>van Heerden</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -11224,7 +11256,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11236,12 +11268,12 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Lindie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -11263,12 +11295,12 @@
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Willem</t>
+          <t>Lindie</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -11290,12 +11322,12 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Willem</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -11312,93 +11344,120 @@
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>van der Merwe</t>
+          <t>van Wyk</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>von der Decken</t>
+          <t>van der Merwe</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
+          <t>von der Decken</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>King William's Town</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="25" customHeight="1">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
           <t>‘t Hart</t>
         </is>
       </c>
-      <c r="B126" s="3" t="inlineStr">
+      <c r="B127" s="3" t="inlineStr">
         <is>
           <t>Michelle</t>
         </is>
       </c>
-      <c r="C126" s="3" t="inlineStr">
+      <c r="C127" s="3" t="inlineStr">
         <is>
           <t>Benoni Lakes</t>
         </is>
       </c>
-      <c r="D126" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>Number of attendees: 124</t>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>Number of attendees: 125</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 59</t>
         </is>
@@ -11434,7 +11493,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Registrees as of 20/04/2021 20:45</t>
+          <t>410W Registrees as of 21/04/2021 09:02</t>
         </is>
       </c>
     </row>
@@ -15487,7 +15546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15502,7 +15561,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Voting details as of 20/04/2021 20:45</t>
+          <t>410E Voting details as of 21/04/2021 09:02</t>
         </is>
       </c>
     </row>
@@ -15581,27 +15640,27 @@
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -15611,47 +15670,47 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>King William's Town</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>King William's Town</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
@@ -15661,7 +15720,7 @@
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
@@ -15671,7 +15730,7 @@
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -15681,7 +15740,7 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
@@ -15691,47 +15750,47 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Roodepoort Clearwater Cyber</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Ramsgate</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -15741,7 +15800,7 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Roodepoort Clearwater Cyber</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -15751,52 +15810,72 @@
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Number of clubs: 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="30" ht="25" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Vereeniging</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="25" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Wilro Park</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Number of clubs: 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Number of voters: 60</t>
         </is>
@@ -15829,7 +15908,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410W Voting details as of 20/04/2021 20:45</t>
+          <t>410W Voting details as of 21/04/2021 09:02</t>
         </is>
       </c>
     </row>

--- a/static/docs/registrees_list.xlsx
+++ b/static/docs/registrees_list.xlsx
@@ -451,7 +451,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MD410 Registrees as of 21/04/2021 09:02</t>
+          <t>MD410 Registrees as of 21/04/2021 09:27</t>
         </is>
       </c>
     </row>
@@ -488,16 +488,24 @@
       </c>
     </row>
     <row r="3" ht="25" customHeight="1">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ANDREWS</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Neale Stewart</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -514,17 +522,17 @@
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>ANDREWS</t>
+          <t>Abrahams</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Neale Stewart</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -539,24 +547,24 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Abrahams</t>
+          <t>Abramsohn</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Milnerton</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -566,7 +574,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -583,12 +591,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Janine</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Milnerton</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -598,7 +606,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -610,17 +618,17 @@
     <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Abramsohn</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Janine</t>
+          <t>Rashid</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -630,7 +638,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -642,17 +650,17 @@
     <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Rashid</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -662,7 +670,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -674,17 +682,17 @@
     <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>BRAGA BORGES</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -706,27 +714,27 @@
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BRAGA BORGES</t>
+          <t>Benade</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>Cathleen</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Rehoboth</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -738,17 +746,17 @@
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Benade</t>
+          <t>Beukes-Williams</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Cathleen</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Rehoboth</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -758,7 +766,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -770,22 +778,22 @@
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Beukes-Williams</t>
+          <t>Blakeman</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -795,24 +803,24 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Blakeman</t>
+          <t>Boswell</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Belinda</t>
+          <t>Mel</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -834,17 +842,17 @@
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Boswell</t>
+          <t>Botha</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Mel</t>
+          <t>Lyn(ette)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -854,7 +862,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -866,17 +874,17 @@
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Botha</t>
+          <t>Brooker</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Lyn(ette)</t>
+          <t>Byron</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -898,17 +906,17 @@
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Brooker</t>
+          <t>Byars</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Byron</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Manzini</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -918,7 +926,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -930,54 +938,54 @@
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Byars</t>
+          <t>Cadman</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Manzini</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Cadman</t>
+          <t>Calomiris</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Helderberg</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -994,27 +1002,27 @@
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Calomiris</t>
+          <t>Cannone</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Linda Ann</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Helderberg</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1026,27 +1034,27 @@
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Cannone</t>
+          <t>Carstens</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Linda Ann</t>
+          <t>Petrus</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1058,27 +1066,27 @@
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Carstens</t>
+          <t>Castle</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Petrus</t>
+          <t>Lizelle</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1090,22 +1098,22 @@
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Castle</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Lizelle</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1122,17 +1130,17 @@
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Chazen</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lionel</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1142,29 +1150,29 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Chazen</t>
+          <t>Chetty</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Lionel</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>East Coast</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1174,7 +1182,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -1186,22 +1194,22 @@
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Chetty</t>
+          <t>Chinyai</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Tanyaradzwa</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>East Coast</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1211,34 +1219,34 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Chinyai</t>
+          <t>Cloete</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Tanyaradzwa</t>
+          <t>Delaney Yeltsin</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -1250,49 +1258,49 @@
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Cloete</t>
+          <t>Coppen</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Delaney Yeltsin</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Coppen</t>
+          <t>Cornelius</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Esme</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Kuilsriver</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1307,34 +1315,34 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Cornelius</t>
+          <t>Cottle</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Esme</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Kuilsriver</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1346,22 +1354,22 @@
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Cottle</t>
+          <t>DE VILLIERS</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Malgas</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1378,27 +1386,27 @@
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>DE VILLIERS</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Malgas</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -1415,7 +1423,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Norma</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1425,7 +1433,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1442,22 +1450,22 @@
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>De Wet</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Norma</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1467,24 +1475,24 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>De Wet</t>
+          <t>Diener</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Benita</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1494,29 +1502,29 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Diener</t>
+          <t>Dodd</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Benita</t>
+          <t>Freda</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1526,7 +1534,7 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
@@ -1538,17 +1546,17 @@
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Dodd</t>
+          <t>Du Plooy</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Freda</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Krugersdorp</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1558,12 +1566,12 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1583,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Peggy</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1602,17 +1610,17 @@
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Du Plooy</t>
+          <t>Easton</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Glynn</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Krugersdorp</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1639,7 +1647,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Glynn</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1666,27 +1674,27 @@
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Easton</t>
+          <t>Els</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -1698,22 +1706,22 @@
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Els</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>Fadia</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1723,7 +1731,7 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1743,12 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Fadia</t>
+          <t>Abubakr</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1762,17 +1770,17 @@
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Ely</t>
+          <t>Erasmus</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Abubakr</t>
+          <t>Freddie</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1782,29 +1790,29 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Erasmus</t>
+          <t>Ewers</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Freddie</t>
+          <t>AIDAN</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1819,24 +1827,24 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Ewers</t>
+          <t>Flanagan</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>AIDAN</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1846,7 +1854,7 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -1863,7 +1871,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1878,7 +1886,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -1890,17 +1898,17 @@
     <row r="47" ht="25" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Flanagan</t>
+          <t>Fouché</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Jéan</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1922,17 +1930,17 @@
     <row r="48" ht="25" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Fouché</t>
+          <t>Fourie</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Jéan</t>
+          <t>Lucille</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1942,29 +1950,29 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Fourie</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Lucille</t>
+          <t>Clive</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1979,24 +1987,24 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Foxcroft</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Clive</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Helderkruin</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -2011,7 +2019,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2031,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Kelvin</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2055,7 +2063,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2082,17 +2090,17 @@
     <row r="53" ht="25" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Foxcroft</t>
+          <t>Froise</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Helderkruin</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2114,17 +2122,17 @@
     <row r="54" ht="25" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Froise</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -2134,29 +2142,29 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="55" ht="25" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Bernd</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2166,12 +2174,12 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2191,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Bernd</t>
+          <t>Shirley</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2198,7 +2206,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2210,17 +2218,17 @@
     <row r="57" ht="25" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Shirley</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -2230,7 +2238,7 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
@@ -2247,7 +2255,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Valerie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2262,7 +2270,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
@@ -2274,17 +2282,17 @@
     <row r="59" ht="25" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Grater</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Viv</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -2294,39 +2302,39 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="60" ht="25" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Grater</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Viv</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
@@ -2338,17 +2346,17 @@
     <row r="61" ht="25" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Griffith</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2358,66 +2366,66 @@
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="62" ht="25" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Groves</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Mattheus</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="63" ht="25" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Groves</t>
+          <t>Gunter</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Mattheus</t>
+          <t>Glyn</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2434,22 +2442,22 @@
     <row r="64" ht="25" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Gunter</t>
+          <t>Guthrie</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Glyn</t>
+          <t>Clint</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -2459,24 +2467,24 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="65" ht="25" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Guthrie</t>
+          <t>HOLLIMAN</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Clint</t>
+          <t>KEITH ALEXANDER</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2498,17 +2506,17 @@
     <row r="66" ht="25" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>HOLLIMAN</t>
+          <t>Haywood</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>KEITH ALEXANDER</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2523,24 +2531,24 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="67" ht="25" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Haywood</t>
+          <t>Heathcote</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2550,29 +2558,29 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="68" ht="25" customHeight="1">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Heathcote</t>
+          <t>Hendricks</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2587,34 +2595,34 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="69" ht="25" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Hendricks</t>
+          <t>Hendriks</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
@@ -2626,22 +2634,22 @@
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Hendriks</t>
+          <t>Herzfeld</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2651,24 +2659,24 @@
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="71" ht="25" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Herzfeld</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Wilro Park</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2690,17 +2698,17 @@
     <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Hobbs</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Avril</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Wilro Park</t>
+          <t>North Durban</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2710,7 +2718,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -2727,7 +2735,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Avril</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -2754,17 +2762,17 @@
     <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Hobbs</t>
+          <t>Hocking</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>North Durban</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -2791,7 +2799,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Cliff</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2806,7 +2814,7 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -2818,17 +2826,17 @@
     <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Hocking</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Cliff</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Table View</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2838,12 +2846,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2863,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -2870,7 +2878,7 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
@@ -2882,22 +2890,22 @@
     <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Huysamen</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Johan</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Table View</t>
+          <t>Malmesbury</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -2914,49 +2922,49 @@
     <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Huysamen</t>
+          <t>JOHNSTON</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Johan</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Malmesbury</t>
+          <t>Standerton</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>JOHNSTON</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>Alna</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Standerton</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2978,22 +2986,22 @@
     <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Alna</t>
+          <t>Dawid</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -3003,7 +3011,7 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3023,22 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Dawid</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -3042,17 +3050,17 @@
     <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Jacobson</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>WOLSLEY</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -3062,7 +3070,7 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
@@ -3074,27 +3082,27 @@
     <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Jacobson</t>
+          <t>Jeniker</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>WOLSLEY</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -3106,17 +3114,17 @@
     <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Jeniker</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -3126,7 +3134,7 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
@@ -3138,27 +3146,27 @@
     <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Kahn</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Sea Point</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -3170,27 +3178,27 @@
     <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Kahn</t>
+          <t>Kaiyamo</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>Sea Point</t>
+          <t>Tsumeb</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -3202,22 +3210,22 @@
     <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Kaiyamo</t>
+          <t>Karriem</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Faezal</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Tsumeb</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3234,17 +3242,17 @@
     <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Karriem</t>
+          <t>Kennel</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Faezal</t>
+          <t>Esmeralda Catherine</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -3254,7 +3262,7 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
@@ -3266,17 +3274,17 @@
     <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Kennel</t>
+          <t>Kern</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Esmeralda Catherine</t>
+          <t>Jerome</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -3298,22 +3306,22 @@
     <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Kern</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Jerome</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Kirstenbosch</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3330,17 +3338,17 @@
     <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Khan</t>
+          <t>Khoza</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Faniso</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Kirstenbosch</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -3355,29 +3363,29 @@
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Khoza</t>
+          <t>Kienast</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Faniso</t>
+          <t>Margie</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Edenvale</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -3394,17 +3402,17 @@
     <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Kienast</t>
+          <t>Kimari</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Margie</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Edenvale</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -3426,17 +3434,17 @@
     <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Kimari</t>
+          <t>King</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -3446,7 +3454,7 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
@@ -3463,7 +3471,7 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3490,17 +3498,17 @@
     <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Koekemoer</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -3510,7 +3518,7 @@
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
@@ -3522,22 +3530,22 @@
     <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Koekemoer</t>
+          <t>Koloko</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Muya</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -3547,34 +3555,34 @@
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Koloko</t>
+          <t>Kruger</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Muya</t>
+          <t>Zwaai</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Sedgefield</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
@@ -3586,17 +3594,17 @@
     <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Kruger</t>
+          <t>Laas</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Zwaai</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Sedgefield</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -3606,29 +3614,29 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Laas</t>
+          <t>Lakay</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Bevil</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -3638,29 +3646,29 @@
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Lakay</t>
+          <t>Lang</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Bevil</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Gordons Bay</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3687,7 +3695,7 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -3702,7 +3710,7 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
@@ -3714,22 +3722,22 @@
     <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Lang</t>
+          <t>Langton</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Evelyn May</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Gordons Bay</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -3739,29 +3747,29 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Langton</t>
+          <t>Laubscher</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Evelyn May</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3771,24 +3779,24 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Laubscher</t>
+          <t>Lautenbach</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3798,29 +3806,29 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Lautenbach</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Cape Of Good Hope</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3835,24 +3843,24 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Graeme</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Cape Of Good Hope</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -3862,34 +3870,34 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Louw</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Graeme</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3899,29 +3907,29 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Louw</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Dee</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -3931,24 +3939,24 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Dee</t>
+          <t>Rashmiya</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Mitchells Plain</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3963,24 +3971,24 @@
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Luck</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Rashmiya</t>
+          <t>Zarina</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Mitchells Plain</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -3995,29 +4003,29 @@
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Luck</t>
+          <t>MARCHANT</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Zarina</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>The Wilds</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4034,22 +4042,22 @@
     <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>MARCHANT</t>
+          <t>MAYTHAM</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>LANCE</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>The Wilds</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
@@ -4059,7 +4067,7 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4079,7 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>LANCE</t>
+          <t>ROSEMARIE</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4098,17 +4106,17 @@
     <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>MAYTHAM</t>
+          <t>MILLS</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>ROSEMARIE</t>
+          <t>BERNICE</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -4118,29 +4126,29 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>MILLS</t>
+          <t>MacRobert</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>BERNICE</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Groote Schuur</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -4150,39 +4158,39 @@
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>MacRobert</t>
+          <t>Mangwende</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Pam</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Groote Schuur</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
@@ -4194,22 +4202,22 @@
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Mangwende</t>
+          <t>Mare</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Beaulieu</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Benoni Lakes</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -4219,19 +4227,19 @@
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Mare</t>
+          <t>Maré</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Beaulieu</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -4246,7 +4254,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
@@ -4258,17 +4266,17 @@
     <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Maré</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Rochelle</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Benoni Lakes</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -4278,7 +4286,7 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
@@ -4290,17 +4298,17 @@
     <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>McPherson</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Rochelle</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -4315,24 +4323,24 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>McPherson</t>
+          <t>Mccullough</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Pretoria South</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -4342,29 +4350,29 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Mccullough</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>Pretoria South</t>
+          <t>Port Shepstone</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -4374,7 +4382,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
@@ -4386,17 +4394,17 @@
     <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Michas</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>Port Shepstone</t>
+          <t>Midrand</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4423,7 +4431,7 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -4438,7 +4446,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4450,17 +4458,17 @@
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Michas</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Midrand</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -4470,7 +4478,7 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -4482,17 +4490,17 @@
     <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Mills</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Rustenburg</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -4502,7 +4510,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -4519,7 +4527,7 @@
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -4534,7 +4542,7 @@
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -4546,17 +4554,17 @@
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Mkhize</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Rustenburg</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -4566,34 +4574,34 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Mkhize</t>
+          <t>Moeller</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Frauke E.</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -4610,22 +4618,22 @@
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Moeller</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Frauke E.</t>
+          <t>Bernadine</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4642,27 +4650,27 @@
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Mostert</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Bernadine</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
@@ -4674,22 +4682,22 @@
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Mostert</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
@@ -4699,7 +4707,7 @@
       </c>
       <c r="F134" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4719,7 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -4738,17 +4746,17 @@
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Myburg</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -4758,34 +4766,34 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Myburg</t>
+          <t>Naude</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Cornette</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
@@ -4795,39 +4803,39 @@
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Naude</t>
+          <t>Nel</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Cornette</t>
+          <t>Pieter</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -4839,12 +4847,12 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Pieter</t>
+          <t>Tillie</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -4866,17 +4874,17 @@
     <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Nel</t>
+          <t>Newlands</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Tillie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Port Alfred</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -4891,24 +4899,24 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Newlands</t>
+          <t>Ngobozana</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Sphiwe</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Port Alfred</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -4918,7 +4926,7 @@
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
@@ -4930,17 +4938,17 @@
     <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Ngobozana</t>
+          <t>Niehaus</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Sphiwe</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4950,29 +4958,29 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Niehaus</t>
+          <t>Oberholzer</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>PDG Bokkie</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Uitenhage</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4987,24 +4995,24 @@
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Oberholzer</t>
+          <t>PORTEOUS</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>PDG Bokkie</t>
+          <t>BRIAN</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Uitenhage</t>
+          <t>Hibberdene</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -5026,17 +5034,17 @@
     <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>PORTEOUS</t>
+          <t>Paijmans</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>BRIAN</t>
+          <t>Bronwyn Anne</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Hibberdene</t>
+          <t>Cowies Hill</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -5046,7 +5054,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
@@ -5058,17 +5066,17 @@
     <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Paijmans</t>
+          <t>Pantoleon</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Bronwyn Anne</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Cowies Hill</t>
+          <t>Vereeniging</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -5078,7 +5086,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
@@ -5090,17 +5098,17 @@
     <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Pantoleon</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Maureen</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Vereeniging</t>
+          <t>Ceres</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -5115,24 +5123,24 @@
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Pillay</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Maureen</t>
+          <t>Sundru</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>Ceres</t>
+          <t>Durbanville</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5142,7 +5150,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
@@ -5159,12 +5167,12 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Sundru</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Durbanville</t>
+          <t>Tygerberg Hills</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -5174,7 +5182,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
@@ -5186,17 +5194,17 @@
     <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Pillay</t>
+          <t>Polkinghorne</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Tygerberg Hills</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -5211,7 +5219,7 @@
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5231,7 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -5238,7 +5246,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -5250,22 +5258,22 @@
     <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Polkinghorne</t>
+          <t>Pretorius</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Gavin</t>
+          <t>Sheldon Edmund</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Merriman</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
@@ -5275,29 +5283,29 @@
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Pretorius</t>
+          <t>Ras</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Sheldon Edmund</t>
+          <t>Mary-Anne</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Merriman</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
@@ -5319,7 +5327,7 @@
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Mary-Anne</t>
+          <t>Leon Jacobus</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -5339,29 +5347,29 @@
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Ras</t>
+          <t>Rashirai</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Leon Jacobus</t>
+          <t>Tabeth</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Pretoria Jakaranda</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
@@ -5378,27 +5386,27 @@
     <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Rashirai</t>
+          <t>Reniers</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Tabeth</t>
+          <t>Hugo</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>Pretoria Jakaranda</t>
+          <t>Nelspruit</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5410,17 +5418,17 @@
     <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Reniers</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>Nelspruit</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -5430,29 +5438,29 @@
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Rossouw</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Tokai</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -5462,7 +5470,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
@@ -5474,17 +5482,17 @@
     <row r="159" ht="25" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Rossouw</t>
+          <t>Rothner</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Tokai</t>
+          <t>Eden</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -5494,7 +5502,7 @@
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
@@ -5506,17 +5514,17 @@
     <row r="160" ht="25" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Rothner</t>
+          <t>Roux</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Anthonie Petrus</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Eden</t>
+          <t>Moorreesburg</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -5526,7 +5534,7 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
@@ -5538,17 +5546,17 @@
     <row r="161" ht="25" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Anthonie Petrus</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Moorreesburg</t>
+          <t>Fish Hoek</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -5570,27 +5578,27 @@
     <row r="162" ht="25" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>SNYMAN</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>LYN</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Fish Hoek</t>
+          <t>Deep South</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
@@ -5602,27 +5610,27 @@
     <row r="163" ht="25" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>SNYMAN</t>
+          <t>STEENBERG</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>LYN</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Deep South</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
@@ -5634,17 +5642,17 @@
     <row r="164" ht="25" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>STEENBERG</t>
+          <t>Sabatier</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Letaba Tzaneen</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -5659,24 +5667,24 @@
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Sabatier</t>
+          <t>Sampie</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>Letaba Tzaneen</t>
+          <t>Bergvliet</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -5691,24 +5699,24 @@
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="166" ht="25" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Sampie</t>
+          <t>Schatz</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>Bergvliet</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -5718,7 +5726,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
@@ -5735,7 +5743,7 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -5750,7 +5758,7 @@
       </c>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr">
@@ -5762,17 +5770,17 @@
     <row r="168" ht="25" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Schatz</t>
+          <t>Searle</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Kouga</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -5787,7 +5795,7 @@
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5807,7 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -5814,7 +5822,7 @@
       </c>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
@@ -5826,17 +5834,17 @@
     <row r="170" ht="25" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Searle</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Kouga</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -5851,24 +5859,24 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
     <row r="171" ht="25" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Beryl</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -5890,17 +5898,17 @@
     <row r="172" ht="25" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Sircoulomb</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Beryl</t>
+          <t>Kenlis</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Windhoek</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -5927,7 +5935,7 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Kenlis</t>
+          <t>Holger</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -5942,7 +5950,7 @@
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
@@ -5954,12 +5962,12 @@
     <row r="174" ht="25" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Sircoulomb</t>
+          <t>Smeer</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Holger</t>
+          <t>Hennie</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5969,12 +5977,12 @@
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
@@ -5986,22 +5994,22 @@
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Smeer</t>
+          <t>Smit</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>Windhoek</t>
+          <t>Centurion</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
@@ -6011,7 +6019,7 @@
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6031,12 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>Centurion</t>
+          <t>Swellendam</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -6038,12 +6046,12 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>410E</t>
+          <t>410W</t>
         </is>
       </c>
     </row>
@@ -6055,17 +6063,17 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Juanita</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>Swellendam</t>
+          <t>Alberton</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E177" s="3" t="inlineStr">
@@ -6075,7 +6083,7 @@
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>410W</t>
+          <t>410E</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8017,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Number of voters: 102</t>
+          <t>Number of voters: 100</t>
         </is>
       </c>
     </row>
@@ -8043,7 +8051,7 @@
     <row r="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>410E Registrees as of 21/04/2021 09:02</t>
+          <t>410E Registrees as of 21/04/2021 09:27</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8635,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -8637,7 +8645,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8932,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Alberton</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -8934,7 +8942,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10427,7 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11459,7 +11467,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          